--- a/Code/Results/Cases/Case_5_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9873087269519004</v>
+        <v>1.041517944854482</v>
       </c>
       <c r="D2">
-        <v>1.008154573794974</v>
+        <v>1.057763147677112</v>
       </c>
       <c r="E2">
-        <v>0.9932220066724056</v>
+        <v>1.050729880017031</v>
       </c>
       <c r="F2">
-        <v>0.9832509696112619</v>
+        <v>1.063251724252615</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039415037746763</v>
+        <v>1.067936633545386</v>
       </c>
       <c r="J2">
-        <v>1.009875773265515</v>
+        <v>1.062524008945996</v>
       </c>
       <c r="K2">
-        <v>1.019501459541911</v>
+        <v>1.068472396257141</v>
       </c>
       <c r="L2">
-        <v>1.004776584412072</v>
+        <v>1.061524970168024</v>
       </c>
       <c r="M2">
-        <v>0.9949486842490283</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.073894962898192</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9968991450826644</v>
+        <v>1.050433347015367</v>
       </c>
       <c r="D3">
-        <v>1.015632636397013</v>
+        <v>1.064909818311041</v>
       </c>
       <c r="E3">
-        <v>1.001764893426491</v>
+        <v>1.058500064689996</v>
       </c>
       <c r="F3">
-        <v>0.9938875703604573</v>
+        <v>1.071000811139555</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043028131967861</v>
+        <v>1.0712839059844</v>
       </c>
       <c r="J3">
-        <v>1.017474700960469</v>
+        <v>1.069637581103002</v>
       </c>
       <c r="K3">
-        <v>1.0260693269826</v>
+        <v>1.074774439185524</v>
       </c>
       <c r="L3">
-        <v>1.012375241810251</v>
+        <v>1.06843538913835</v>
       </c>
       <c r="M3">
-        <v>1.004599262952052</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.08079920633307</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002855118251296</v>
+        <v>1.056007480061568</v>
       </c>
       <c r="D4">
-        <v>1.020279244920836</v>
+        <v>1.069379882632142</v>
       </c>
       <c r="E4">
-        <v>1.007070897667643</v>
+        <v>1.063359564402292</v>
       </c>
       <c r="F4">
-        <v>1.000498546386157</v>
+        <v>1.075849642369861</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04525501474669</v>
+        <v>1.073361599894712</v>
       </c>
       <c r="J4">
-        <v>1.022186070716817</v>
+        <v>1.074079456246704</v>
       </c>
       <c r="K4">
-        <v>1.030138926491208</v>
+        <v>1.078707301957799</v>
       </c>
       <c r="L4">
-        <v>1.017084725753674</v>
+        <v>1.072749016122983</v>
       </c>
       <c r="M4">
-        <v>1.010590958114225</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.085111340347632</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00530371353641</v>
+        <v>1.058307224397713</v>
       </c>
       <c r="D5">
-        <v>1.022189969463729</v>
+        <v>1.071224426394598</v>
       </c>
       <c r="E5">
-        <v>1.009252334710952</v>
+        <v>1.065364710679209</v>
       </c>
       <c r="F5">
-        <v>1.003217778065012</v>
+        <v>1.077850971341321</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046166374391737</v>
+        <v>1.074215113918745</v>
       </c>
       <c r="J5">
-        <v>1.024121050306922</v>
+        <v>1.075910624786056</v>
       </c>
       <c r="K5">
-        <v>1.031809682627448</v>
+        <v>1.080328056851224</v>
       </c>
       <c r="L5">
-        <v>1.019018528051508</v>
+        <v>1.074526971330068</v>
       </c>
       <c r="M5">
-        <v>1.013053892320283</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.086889230881705</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005711721127293</v>
+        <v>1.058690885321721</v>
       </c>
       <c r="D6">
-        <v>1.022508372843858</v>
+        <v>1.071532162230924</v>
       </c>
       <c r="E6">
-        <v>1.009615826801536</v>
+        <v>1.065699236201194</v>
       </c>
       <c r="F6">
-        <v>1.003670963589809</v>
+        <v>1.07818489381523</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046317987416708</v>
+        <v>1.074357284817986</v>
       </c>
       <c r="J6">
-        <v>1.024443358644607</v>
+        <v>1.076216028079632</v>
       </c>
       <c r="K6">
-        <v>1.032087940212144</v>
+        <v>1.080598332801517</v>
       </c>
       <c r="L6">
-        <v>1.019340616853719</v>
+        <v>1.074823479281196</v>
       </c>
       <c r="M6">
-        <v>1.013464270024958</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.08718576000071</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002888048257903</v>
+        <v>1.056038377015814</v>
       </c>
       <c r="D7">
-        <v>1.020304939858643</v>
+        <v>1.069404662911304</v>
       </c>
       <c r="E7">
-        <v>1.007100234679885</v>
+        <v>1.063386502604418</v>
       </c>
       <c r="F7">
-        <v>1.000535110576432</v>
+        <v>1.07587652699905</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045267287740948</v>
+        <v>1.073373081511438</v>
       </c>
       <c r="J7">
-        <v>1.022212101119881</v>
+        <v>1.074104063675885</v>
       </c>
       <c r="K7">
-        <v>1.030161405034019</v>
+        <v>1.078729084130494</v>
       </c>
       <c r="L7">
-        <v>1.01711074190519</v>
+        <v>1.072772909834864</v>
       </c>
       <c r="M7">
-        <v>1.010624082277081</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.085135231028423</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9906044219287894</v>
+        <v>1.044573168103778</v>
       </c>
       <c r="D8">
-        <v>1.010723734257071</v>
+        <v>1.060211788726097</v>
       </c>
       <c r="E8">
-        <v>0.9961575427785271</v>
+        <v>1.053392295933604</v>
       </c>
       <c r="F8">
-        <v>0.9869051116094585</v>
+        <v>1.065906362814688</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040660218024631</v>
+        <v>1.069086867559835</v>
       </c>
       <c r="J8">
-        <v>1.012488725406429</v>
+        <v>1.064962928326242</v>
       </c>
       <c r="K8">
-        <v>1.021760378932258</v>
+        <v>1.07063354421587</v>
       </c>
       <c r="L8">
-        <v>1.007389815391329</v>
+        <v>1.063894527669628</v>
       </c>
       <c r="M8">
-        <v>0.9982654325802843</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.076261892042245</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9668115862780293</v>
+        <v>1.022725948409855</v>
       </c>
       <c r="D9">
-        <v>0.9921951204260774</v>
+        <v>1.042715535293561</v>
       </c>
       <c r="E9">
-        <v>0.9749717088846507</v>
+        <v>1.034364370241029</v>
       </c>
       <c r="F9">
-        <v>0.9605435559654261</v>
+        <v>1.04694603659491</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031599255138545</v>
+        <v>1.060798878358906</v>
       </c>
       <c r="J9">
-        <v>0.9935933181235869</v>
+        <v>1.047500951660944</v>
       </c>
       <c r="K9">
-        <v>1.005416108451977</v>
+        <v>1.055151615692879</v>
       </c>
       <c r="L9">
-        <v>0.988484338748313</v>
+        <v>1.046923470867127</v>
       </c>
       <c r="M9">
-        <v>0.9743109583388403</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.059320746920037</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9491071503656003</v>
+        <v>1.006807984121513</v>
       </c>
       <c r="D10">
-        <v>0.9784437839555165</v>
+        <v>1.029992395683807</v>
       </c>
       <c r="E10">
-        <v>0.9592221494162557</v>
+        <v>1.020519793778485</v>
       </c>
       <c r="F10">
-        <v>0.9409460887224826</v>
+        <v>1.033167401724903</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024768706590677</v>
+        <v>1.054682951775283</v>
       </c>
       <c r="J10">
-        <v>0.9794963329656062</v>
+        <v>1.0347540712804</v>
       </c>
       <c r="K10">
-        <v>0.9932134640459197</v>
+        <v>1.043840450861543</v>
       </c>
       <c r="L10">
-        <v>0.9743688744728021</v>
+        <v>1.034528183905382</v>
       </c>
       <c r="M10">
-        <v>0.9564702330215236</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.046962563247352</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9408875352819303</v>
+        <v>0.9995264484429007</v>
       </c>
       <c r="D11">
-        <v>0.9720723813793142</v>
+        <v>1.024180948121699</v>
       </c>
       <c r="E11">
-        <v>0.9519160956985477</v>
+        <v>1.014193494221388</v>
       </c>
       <c r="F11">
-        <v>0.9318493768506207</v>
+        <v>1.026875692456614</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02157824309774</v>
+        <v>1.051868290919748</v>
       </c>
       <c r="J11">
-        <v>0.972944413227257</v>
+        <v>1.028918940992013</v>
       </c>
       <c r="K11">
-        <v>0.9875409155912891</v>
+        <v>1.038660814025781</v>
       </c>
       <c r="L11">
-        <v>0.9678055796374001</v>
+        <v>1.028852615670668</v>
       </c>
       <c r="M11">
-        <v>0.9481820959485722</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.04130796719637</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9377385582771495</v>
+        <v>0.9967563406260115</v>
       </c>
       <c r="D12">
-        <v>0.9696338582811752</v>
+        <v>1.02197168007197</v>
       </c>
       <c r="E12">
-        <v>0.949118262507028</v>
+        <v>1.011788028451947</v>
       </c>
       <c r="F12">
-        <v>0.9283643574654622</v>
+        <v>1.024484094847054</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020353250983583</v>
+        <v>1.050795100097815</v>
       </c>
       <c r="J12">
-        <v>0.9704334400215517</v>
+        <v>1.026698615187779</v>
       </c>
       <c r="K12">
-        <v>0.9853669032273495</v>
+        <v>1.036689705677002</v>
       </c>
       <c r="L12">
-        <v>0.9652898133912319</v>
+        <v>1.026692820262589</v>
       </c>
       <c r="M12">
-        <v>0.9450059211773074</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.039156785284769</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9384185974916882</v>
+        <v>0.9973536238719924</v>
       </c>
       <c r="D13">
-        <v>0.9701603549704676</v>
+        <v>1.022447960626584</v>
       </c>
       <c r="E13">
-        <v>0.9497224136131482</v>
+        <v>1.012306628570571</v>
       </c>
       <c r="F13">
-        <v>0.9291169733055598</v>
+        <v>1.024999672017529</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020617913601328</v>
+        <v>1.051026604947955</v>
       </c>
       <c r="J13">
-        <v>0.9709757360982139</v>
+        <v>1.027177374467568</v>
       </c>
       <c r="K13">
-        <v>0.9858364260714456</v>
+        <v>1.037114735511192</v>
       </c>
       <c r="L13">
-        <v>0.9658331643936685</v>
+        <v>1.02715853552556</v>
       </c>
       <c r="M13">
-        <v>0.9456918794852968</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.039620614104911</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9406292788885464</v>
+        <v>0.999298849703285</v>
       </c>
       <c r="D14">
-        <v>0.9718723400443178</v>
+        <v>1.023999395704788</v>
       </c>
       <c r="E14">
-        <v>0.9516866126374909</v>
+        <v>1.013995828795319</v>
       </c>
       <c r="F14">
-        <v>0.931563563036989</v>
+        <v>1.026679151848974</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021477831609316</v>
+        <v>1.051780162926106</v>
       </c>
       <c r="J14">
-        <v>0.9727384983487268</v>
+        <v>1.028736522258498</v>
       </c>
       <c r="K14">
-        <v>0.9873626338702098</v>
+        <v>1.038498874425066</v>
       </c>
       <c r="L14">
-        <v>0.9675992805423922</v>
+        <v>1.02867517360933</v>
       </c>
       <c r="M14">
-        <v>0.9479216291478286</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.041131219776451</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9419782233102781</v>
+        <v>1.000488469386609</v>
       </c>
       <c r="D15">
-        <v>0.972917310856502</v>
+        <v>1.024948404774603</v>
       </c>
       <c r="E15">
-        <v>0.9528853143027678</v>
+        <v>1.01502904396978</v>
       </c>
       <c r="F15">
-        <v>0.9330564446858584</v>
+        <v>1.027706516817184</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022002200164212</v>
+        <v>1.052240695938075</v>
       </c>
       <c r="J15">
-        <v>0.9738140133549851</v>
+        <v>1.029689975593714</v>
       </c>
       <c r="K15">
-        <v>0.9882938166112868</v>
+        <v>1.039345280939637</v>
       </c>
       <c r="L15">
-        <v>0.9686767847324663</v>
+        <v>1.029602607894832</v>
       </c>
       <c r="M15">
-        <v>0.949282079828071</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.042055049256272</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9496399778330755</v>
+        <v>1.007282470915842</v>
       </c>
       <c r="D16">
-        <v>0.9788571032484686</v>
+        <v>1.030371287412542</v>
       </c>
       <c r="E16">
-        <v>0.9596958986917662</v>
+        <v>1.020932192138191</v>
       </c>
       <c r="F16">
-        <v>0.9415357868979117</v>
+        <v>1.03357764081649</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024975145331915</v>
+        <v>1.054866024934145</v>
       </c>
       <c r="J16">
-        <v>0.9799209215658679</v>
+        <v>1.03513423229584</v>
       </c>
       <c r="K16">
-        <v>0.9935810529041572</v>
+        <v>1.044177875044854</v>
       </c>
       <c r="L16">
-        <v>0.9747941419733677</v>
+        <v>1.034897922716992</v>
       </c>
       <c r="M16">
-        <v>0.9570073826215106</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.04733102061217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9542896967956719</v>
+        <v>1.011435457793069</v>
       </c>
       <c r="D17">
-        <v>0.9824654154839302</v>
+        <v>1.033688568510417</v>
       </c>
       <c r="E17">
-        <v>0.963830761177797</v>
+        <v>1.024542528404452</v>
       </c>
       <c r="F17">
-        <v>0.9466819590985245</v>
+        <v>1.037169579087168</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026774509499345</v>
+        <v>1.056466498301754</v>
       </c>
       <c r="J17">
-        <v>0.983625317636366</v>
+        <v>1.038461171784684</v>
       </c>
       <c r="K17">
-        <v>0.9967880369411559</v>
+        <v>1.047130619199492</v>
       </c>
       <c r="L17">
-        <v>0.9785041496173991</v>
+        <v>1.038133500223233</v>
       </c>
       <c r="M17">
-        <v>0.9616942202094113</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.050555834490971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9569493851789879</v>
+        <v>1.013820825271077</v>
       </c>
       <c r="D18">
-        <v>0.9845305697562701</v>
+        <v>1.035594715380951</v>
       </c>
       <c r="E18">
-        <v>0.9661964800781799</v>
+        <v>1.026616828593882</v>
       </c>
       <c r="F18">
-        <v>0.9496258097664666</v>
+        <v>1.039233721953537</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027801971262122</v>
+        <v>1.057384173591327</v>
       </c>
       <c r="J18">
-        <v>0.9857435994854429</v>
+        <v>1.040371677983774</v>
       </c>
       <c r="K18">
-        <v>0.9986217774166722</v>
+        <v>1.048826076852456</v>
       </c>
       <c r="L18">
-        <v>0.9806253837647667</v>
+        <v>1.039991410392634</v>
       </c>
       <c r="M18">
-        <v>0.9643746672678496</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.052407933239549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9578477210789491</v>
+        <v>1.014628091781603</v>
       </c>
       <c r="D19">
-        <v>0.9852282810389278</v>
+        <v>1.036239927954621</v>
       </c>
       <c r="E19">
-        <v>0.9669956087970731</v>
+        <v>1.027318921008417</v>
       </c>
       <c r="F19">
-        <v>0.9506201631495292</v>
+        <v>1.039932445219234</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028148697490216</v>
+        <v>1.057694462952841</v>
       </c>
       <c r="J19">
-        <v>0.9864589515364039</v>
+        <v>1.0410181676239</v>
       </c>
       <c r="K19">
-        <v>0.9992410177604852</v>
+        <v>1.049399767332795</v>
       </c>
       <c r="L19">
-        <v>0.9813416897268967</v>
+        <v>1.040620079378059</v>
       </c>
       <c r="M19">
-        <v>0.9652799383184175</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.053034697473665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9537963302103272</v>
+        <v>1.010993755413769</v>
       </c>
       <c r="D20">
-        <v>0.9820824252337292</v>
+        <v>1.033335666216273</v>
       </c>
       <c r="E20">
-        <v>0.9633919670801253</v>
+        <v>1.024158475459583</v>
       </c>
       <c r="F20">
-        <v>0.9461358979165552</v>
+        <v>1.03678743995817</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026583770535565</v>
+        <v>1.056296440569571</v>
       </c>
       <c r="J20">
-        <v>0.9832323251084631</v>
+        <v>1.038107366679488</v>
       </c>
       <c r="K20">
-        <v>0.9964478243479787</v>
+        <v>1.046816624954396</v>
       </c>
       <c r="L20">
-        <v>0.9781105886113795</v>
+        <v>1.037789424545018</v>
       </c>
       <c r="M20">
-        <v>0.9611969654279745</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.050212864785457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9399810506531897</v>
+        <v>0.9987278972243848</v>
       </c>
       <c r="D21">
-        <v>0.971370272728026</v>
+        <v>1.023543980995539</v>
       </c>
       <c r="E21">
-        <v>0.9511106254436051</v>
+        <v>1.013499987573209</v>
       </c>
       <c r="F21">
-        <v>0.9308461637152519</v>
+        <v>1.026186143881773</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021225754213193</v>
+        <v>1.051559047484942</v>
       </c>
       <c r="J21">
-        <v>0.9722216345045507</v>
+        <v>1.028278900982913</v>
       </c>
       <c r="K21">
-        <v>0.9869151311794411</v>
+        <v>1.038092624656512</v>
       </c>
       <c r="L21">
-        <v>0.9670814452817372</v>
+        <v>1.028230034092834</v>
       </c>
       <c r="M21">
-        <v>0.9472678369724116</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.040687833152469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9307316901069682</v>
+        <v>0.9906329657231051</v>
       </c>
       <c r="D22">
-        <v>0.9642128684820578</v>
+        <v>1.017091310617998</v>
       </c>
       <c r="E22">
-        <v>0.9428952097628401</v>
+        <v>1.006473279894418</v>
       </c>
       <c r="F22">
-        <v>0.9206093212405185</v>
+        <v>1.019201366861805</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0176227005151</v>
+        <v>1.048418505194177</v>
       </c>
       <c r="J22">
-        <v>0.9648447673385417</v>
+        <v>1.021789864790663</v>
       </c>
       <c r="K22">
-        <v>0.9805282488802687</v>
+        <v>1.032331622373997</v>
       </c>
       <c r="L22">
-        <v>0.9596896514872091</v>
+        <v>1.021917581401586</v>
       </c>
       <c r="M22">
-        <v>0.9379365650285415</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.034401802357389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,81 +1219,75 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9356933825091556</v>
+        <v>0.9949631978414971</v>
       </c>
       <c r="D23">
-        <v>0.9680508432472732</v>
+        <v>1.020542061980173</v>
       </c>
       <c r="E23">
-        <v>0.9473015075645331</v>
+        <v>1.010231306784882</v>
       </c>
       <c r="F23">
-        <v>0.926100882238916</v>
+        <v>1.022936556201244</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019556913461165</v>
+        <v>1.05009974266702</v>
       </c>
       <c r="J23">
-        <v>0.96880240170649</v>
+        <v>1.025261244976038</v>
       </c>
       <c r="K23">
-        <v>0.9839547435395667</v>
+        <v>1.035413621170292</v>
       </c>
       <c r="L23">
-        <v>0.963655537483347</v>
+        <v>1.025294586908774</v>
       </c>
       <c r="M23">
-        <v>0.942942790816908</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.037764311286989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9540194223775748</v>
+        <v>1.011193455531641</v>
       </c>
       <c r="D24">
-        <v>0.9822556034709078</v>
+        <v>1.03349521608643</v>
       </c>
       <c r="E24">
-        <v>0.9635903808307157</v>
+        <v>1.024332109520001</v>
       </c>
       <c r="F24">
-        <v>0.9463828171050774</v>
+        <v>1.03696020748236</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026670025124844</v>
+        <v>1.056373331132782</v>
       </c>
       <c r="J24">
-        <v>0.9834100319012181</v>
+        <v>1.03826732841065</v>
       </c>
       <c r="K24">
-        <v>0.9966016649891205</v>
+        <v>1.0469585879899</v>
       </c>
       <c r="L24">
-        <v>0.9782885532618723</v>
+        <v>1.037944987834507</v>
       </c>
       <c r="M24">
-        <v>0.9614218172371146</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.050367926897293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9732538206528237</v>
+        <v>1.028592192885476</v>
       </c>
       <c r="D25">
-        <v>0.9972071952683405</v>
+        <v>1.047410120796231</v>
       </c>
       <c r="E25">
-        <v>0.9807062154518432</v>
+        <v>1.039470982126706</v>
       </c>
       <c r="F25">
-        <v>0.9676775508776198</v>
+        <v>1.052031815036748</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03406784475753</v>
+        <v>1.063037744892212</v>
       </c>
       <c r="J25">
-        <v>0.9987160881586193</v>
+        <v>1.052194195828464</v>
       </c>
       <c r="K25">
-        <v>1.009849021195864</v>
+        <v>1.059314480730656</v>
       </c>
       <c r="L25">
-        <v>0.9936116134272022</v>
+        <v>1.051485973413915</v>
       </c>
       <c r="M25">
-        <v>0.980799249471709</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.063872740228348</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041517944854482</v>
+        <v>1.003435200052894</v>
       </c>
       <c r="D2">
-        <v>1.057763147677112</v>
+        <v>1.020185237743593</v>
       </c>
       <c r="E2">
-        <v>1.050729880017031</v>
+        <v>1.009397277373848</v>
       </c>
       <c r="F2">
-        <v>1.063251724252615</v>
+        <v>1.008909198278688</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.067936633545386</v>
+        <v>1.042426393957617</v>
       </c>
       <c r="J2">
-        <v>1.062524008945996</v>
+        <v>1.025513648102384</v>
       </c>
       <c r="K2">
-        <v>1.068472396257141</v>
+        <v>1.031370344183187</v>
       </c>
       <c r="L2">
-        <v>1.061524970168024</v>
+        <v>1.020727227424615</v>
       </c>
       <c r="M2">
-        <v>1.073894962898192</v>
+        <v>1.020245793660636</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050433347015367</v>
+        <v>1.007561487284761</v>
       </c>
       <c r="D3">
-        <v>1.064909818311041</v>
+        <v>1.023217247484617</v>
       </c>
       <c r="E3">
-        <v>1.058500064689996</v>
+        <v>1.012667446661392</v>
       </c>
       <c r="F3">
-        <v>1.071000811139555</v>
+        <v>1.013885090834323</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0712839059844</v>
+        <v>1.043670339808284</v>
       </c>
       <c r="J3">
-        <v>1.069637581103002</v>
+        <v>1.027848119733692</v>
       </c>
       <c r="K3">
-        <v>1.074774439185524</v>
+        <v>1.033561433730163</v>
       </c>
       <c r="L3">
-        <v>1.06843538913835</v>
+        <v>1.023140770744409</v>
       </c>
       <c r="M3">
-        <v>1.08079920633307</v>
+        <v>1.024343339229061</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056007480061568</v>
+        <v>1.010179443360333</v>
       </c>
       <c r="D4">
-        <v>1.069379882632142</v>
+        <v>1.025143593651711</v>
       </c>
       <c r="E4">
-        <v>1.063359564402292</v>
+        <v>1.014748011507965</v>
       </c>
       <c r="F4">
-        <v>1.075849642369861</v>
+        <v>1.017043526242176</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.073361599894712</v>
+        <v>1.044451038673446</v>
       </c>
       <c r="J4">
-        <v>1.074079456246704</v>
+        <v>1.029326294229587</v>
       </c>
       <c r="K4">
-        <v>1.078707301957799</v>
+        <v>1.03494774071787</v>
       </c>
       <c r="L4">
-        <v>1.072749016122983</v>
+        <v>1.024671640858116</v>
       </c>
       <c r="M4">
-        <v>1.085111340347632</v>
+        <v>1.026940512323244</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.058307224397713</v>
+        <v>1.011267991308823</v>
       </c>
       <c r="D5">
-        <v>1.071224426394598</v>
+        <v>1.02594516559031</v>
       </c>
       <c r="E5">
-        <v>1.065364710679209</v>
+        <v>1.015614461355695</v>
       </c>
       <c r="F5">
-        <v>1.077850971341321</v>
+        <v>1.018357201762342</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.074215113918745</v>
+        <v>1.044773577758084</v>
       </c>
       <c r="J5">
-        <v>1.075910624786056</v>
+        <v>1.029940187002113</v>
       </c>
       <c r="K5">
-        <v>1.080328056851224</v>
+        <v>1.035523212918409</v>
       </c>
       <c r="L5">
-        <v>1.074526971330068</v>
+        <v>1.025308047709141</v>
       </c>
       <c r="M5">
-        <v>1.086889230881705</v>
+        <v>1.028019831688184</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.058690885321721</v>
+        <v>1.011450068917425</v>
       </c>
       <c r="D6">
-        <v>1.071532162230924</v>
+        <v>1.026079275521142</v>
       </c>
       <c r="E6">
-        <v>1.065699236201194</v>
+        <v>1.015759467663342</v>
       </c>
       <c r="F6">
-        <v>1.07818489381523</v>
+        <v>1.018576960363465</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.074357284817986</v>
+        <v>1.044827404879429</v>
       </c>
       <c r="J6">
-        <v>1.076216028079632</v>
+        <v>1.030042826869082</v>
       </c>
       <c r="K6">
-        <v>1.080598332801517</v>
+        <v>1.035619413071167</v>
       </c>
       <c r="L6">
-        <v>1.074823479281196</v>
+        <v>1.025414488791949</v>
       </c>
       <c r="M6">
-        <v>1.08718576000071</v>
+        <v>1.028200331837345</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056038377015814</v>
+        <v>1.010194035367843</v>
       </c>
       <c r="D7">
-        <v>1.069404662911304</v>
+        <v>1.0251543364425</v>
       </c>
       <c r="E7">
-        <v>1.063386502604418</v>
+        <v>1.014759621003937</v>
       </c>
       <c r="F7">
-        <v>1.07587652699905</v>
+        <v>1.017061134461137</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.073373081511438</v>
+        <v>1.044455370553532</v>
       </c>
       <c r="J7">
-        <v>1.074104063675885</v>
+        <v>1.029334526403784</v>
       </c>
       <c r="K7">
-        <v>1.078729084130494</v>
+        <v>1.034955458748938</v>
       </c>
       <c r="L7">
-        <v>1.072772909834864</v>
+        <v>1.024680172455863</v>
       </c>
       <c r="M7">
-        <v>1.085135231028423</v>
+        <v>1.026954982908836</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044573168103778</v>
+        <v>1.004840726869914</v>
       </c>
       <c r="D8">
-        <v>1.060211788726097</v>
+        <v>1.021217438696601</v>
       </c>
       <c r="E8">
-        <v>1.053392295933604</v>
+        <v>1.010509952516876</v>
       </c>
       <c r="F8">
-        <v>1.065906362814688</v>
+        <v>1.010603853609182</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.069086867559835</v>
+        <v>1.042851886538654</v>
       </c>
       <c r="J8">
-        <v>1.064962928326242</v>
+        <v>1.02630943576576</v>
       </c>
       <c r="K8">
-        <v>1.07063354421587</v>
+        <v>1.032117475972378</v>
       </c>
       <c r="L8">
-        <v>1.063894527669628</v>
+        <v>1.021549417189139</v>
       </c>
       <c r="M8">
-        <v>1.076261892042245</v>
+        <v>1.021642079446933</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022725948409855</v>
+        <v>0.9949893731269246</v>
       </c>
       <c r="D9">
-        <v>1.042715535293561</v>
+        <v>1.013995851779872</v>
       </c>
       <c r="E9">
-        <v>1.034364370241029</v>
+        <v>1.002737287423445</v>
       </c>
       <c r="F9">
-        <v>1.04694603659491</v>
+        <v>0.9987299075785774</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060798878358906</v>
+        <v>1.03983464536915</v>
       </c>
       <c r="J9">
-        <v>1.047500951660944</v>
+        <v>1.020720318808934</v>
       </c>
       <c r="K9">
-        <v>1.055151615692879</v>
+        <v>1.026865865085638</v>
       </c>
       <c r="L9">
-        <v>1.046923470867127</v>
+        <v>1.015786109614366</v>
       </c>
       <c r="M9">
-        <v>1.059320746920037</v>
+        <v>1.011843624811468</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006807984121513</v>
+        <v>0.9881114864184348</v>
       </c>
       <c r="D10">
-        <v>1.029992395683807</v>
+        <v>1.008972764031759</v>
       </c>
       <c r="E10">
-        <v>1.020519793778485</v>
+        <v>0.9973456772714999</v>
       </c>
       <c r="F10">
-        <v>1.033167401724903</v>
+        <v>0.9904422817688413</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054682951775283</v>
+        <v>1.037685017296018</v>
       </c>
       <c r="J10">
-        <v>1.0347540712804</v>
+        <v>1.01680485838226</v>
       </c>
       <c r="K10">
-        <v>1.043840450861543</v>
+        <v>1.023181880512162</v>
       </c>
       <c r="L10">
-        <v>1.034528183905382</v>
+        <v>1.011763022286431</v>
       </c>
       <c r="M10">
-        <v>1.046962563247352</v>
+        <v>1.004986275012317</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9995264484429007</v>
+        <v>0.985052644046151</v>
       </c>
       <c r="D11">
-        <v>1.024180948121699</v>
+        <v>1.006743988626498</v>
       </c>
       <c r="E11">
-        <v>1.014193494221388</v>
+        <v>0.9949567778560124</v>
       </c>
       <c r="F11">
-        <v>1.026875692456614</v>
+        <v>0.986756136937586</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051868290919748</v>
+        <v>1.036719206990102</v>
       </c>
       <c r="J11">
-        <v>1.028918940992013</v>
+        <v>1.015060747884098</v>
       </c>
       <c r="K11">
-        <v>1.038660814025781</v>
+        <v>1.02153983409467</v>
       </c>
       <c r="L11">
-        <v>1.028852615670668</v>
+        <v>1.009974432804853</v>
       </c>
       <c r="M11">
-        <v>1.04130796719637</v>
+        <v>1.001932210910188</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9967563406260115</v>
+        <v>0.9839036879804892</v>
       </c>
       <c r="D12">
-        <v>1.02197168007197</v>
+        <v>1.00590766118251</v>
       </c>
       <c r="E12">
-        <v>1.011788028451947</v>
+        <v>0.9940608650202133</v>
       </c>
       <c r="F12">
-        <v>1.024484094847054</v>
+        <v>0.9853714204492291</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050795100097815</v>
+        <v>1.036354997332777</v>
       </c>
       <c r="J12">
-        <v>1.026698615187779</v>
+        <v>1.014405248043367</v>
       </c>
       <c r="K12">
-        <v>1.036689705677002</v>
+        <v>1.02092254823163</v>
       </c>
       <c r="L12">
-        <v>1.026692820262589</v>
+        <v>1.009302740946198</v>
       </c>
       <c r="M12">
-        <v>1.039156785284769</v>
+        <v>1.000784351794648</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9973536238719924</v>
+        <v>0.9841507314866984</v>
       </c>
       <c r="D13">
-        <v>1.022447960626584</v>
+        <v>1.006087445618674</v>
       </c>
       <c r="E13">
-        <v>1.012306628570571</v>
+        <v>0.994253436045717</v>
       </c>
       <c r="F13">
-        <v>1.024999672017529</v>
+        <v>0.9856691636010396</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051026604947955</v>
+        <v>1.036433372279381</v>
       </c>
       <c r="J13">
-        <v>1.027177374467568</v>
+        <v>1.014546207379203</v>
       </c>
       <c r="K13">
-        <v>1.037114735511192</v>
+        <v>1.021055296374661</v>
       </c>
       <c r="L13">
-        <v>1.02715853552556</v>
+        <v>1.009447158439679</v>
       </c>
       <c r="M13">
-        <v>1.039620614104911</v>
+        <v>1.001031191709292</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.999298849703285</v>
+        <v>0.9849579352862005</v>
       </c>
       <c r="D14">
-        <v>1.023999395704788</v>
+        <v>1.006675032464235</v>
       </c>
       <c r="E14">
-        <v>1.013995828795319</v>
+        <v>0.9948828987060413</v>
       </c>
       <c r="F14">
-        <v>1.026679151848974</v>
+        <v>0.986641997614212</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051780162926106</v>
+        <v>1.036689214020589</v>
       </c>
       <c r="J14">
-        <v>1.028736522258498</v>
+        <v>1.015006722388025</v>
       </c>
       <c r="K14">
-        <v>1.038498874425066</v>
+        <v>1.021488961035014</v>
       </c>
       <c r="L14">
-        <v>1.02867517360933</v>
+        <v>1.009919062087518</v>
       </c>
       <c r="M14">
-        <v>1.041131219776451</v>
+        <v>1.001837607022458</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000488469386609</v>
+        <v>0.985453568542669</v>
       </c>
       <c r="D15">
-        <v>1.024948404774603</v>
+        <v>1.007035930964316</v>
       </c>
       <c r="E15">
-        <v>1.01502904396978</v>
+        <v>0.9952695831552276</v>
       </c>
       <c r="F15">
-        <v>1.027706516817184</v>
+        <v>0.9872393095991759</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052240695938075</v>
+        <v>1.036846116060244</v>
       </c>
       <c r="J15">
-        <v>1.029689975593714</v>
+        <v>1.015289435229691</v>
       </c>
       <c r="K15">
-        <v>1.039345280939637</v>
+        <v>1.021755171470906</v>
       </c>
       <c r="L15">
-        <v>1.029602607894832</v>
+        <v>1.010208835827233</v>
       </c>
       <c r="M15">
-        <v>1.042055049256272</v>
+        <v>1.002332662738505</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007282470915842</v>
+        <v>0.9883127379078861</v>
       </c>
       <c r="D16">
-        <v>1.030371287412542</v>
+        <v>1.009119515746624</v>
       </c>
       <c r="E16">
-        <v>1.020932192138191</v>
+        <v>0.9975030421414894</v>
       </c>
       <c r="F16">
-        <v>1.03357764081649</v>
+        <v>0.9906847915927075</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054866024934145</v>
+        <v>1.037748360175296</v>
       </c>
       <c r="J16">
-        <v>1.03513423229584</v>
+        <v>1.016919554527792</v>
       </c>
       <c r="K16">
-        <v>1.044177875044854</v>
+        <v>1.023289843922966</v>
       </c>
       <c r="L16">
-        <v>1.034897922716992</v>
+        <v>1.011880715968638</v>
       </c>
       <c r="M16">
-        <v>1.04733102061217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.005187117742042</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011435457793069</v>
+        <v>0.9900841786674247</v>
       </c>
       <c r="D17">
-        <v>1.033688568510417</v>
+        <v>1.010411839238194</v>
       </c>
       <c r="E17">
-        <v>1.024542528404452</v>
+        <v>0.9988892126995975</v>
       </c>
       <c r="F17">
-        <v>1.037169579087168</v>
+        <v>0.9928193450419386</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056466498301754</v>
+        <v>1.03830480101811</v>
       </c>
       <c r="J17">
-        <v>1.038461171784684</v>
+        <v>1.01792881350934</v>
       </c>
       <c r="K17">
-        <v>1.047130619199492</v>
+        <v>1.024239741223265</v>
       </c>
       <c r="L17">
-        <v>1.038133500223233</v>
+        <v>1.012916746112215</v>
       </c>
       <c r="M17">
-        <v>1.050555834490971</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.006954459558773</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013820825271077</v>
+        <v>0.9911096922553121</v>
       </c>
       <c r="D18">
-        <v>1.035594715380951</v>
+        <v>1.011160471409298</v>
       </c>
       <c r="E18">
-        <v>1.026616828593882</v>
+        <v>0.9996925328663474</v>
       </c>
       <c r="F18">
-        <v>1.039233721953537</v>
+        <v>0.9940550434012007</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057384173591327</v>
+        <v>1.038626000441074</v>
       </c>
       <c r="J18">
-        <v>1.040371677983774</v>
+        <v>1.018512823732082</v>
       </c>
       <c r="K18">
-        <v>1.048826076852456</v>
+        <v>1.02478930174052</v>
       </c>
       <c r="L18">
-        <v>1.039991410392634</v>
+        <v>1.013516575704848</v>
       </c>
       <c r="M18">
-        <v>1.052407933239549</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.007977189695666</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014628091781603</v>
+        <v>0.9914580723213916</v>
       </c>
       <c r="D19">
-        <v>1.036239927954621</v>
+        <v>1.01141487203177</v>
       </c>
       <c r="E19">
-        <v>1.027318921008417</v>
+        <v>0.9999655727079062</v>
       </c>
       <c r="F19">
-        <v>1.039932445219234</v>
+        <v>0.9944748237911839</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057694462952841</v>
+        <v>1.03873495671175</v>
       </c>
       <c r="J19">
-        <v>1.0410181676239</v>
+        <v>1.01871117350991</v>
       </c>
       <c r="K19">
-        <v>1.049399767332795</v>
+        <v>1.024975933935377</v>
       </c>
       <c r="L19">
-        <v>1.040620079378059</v>
+        <v>1.0137203538178</v>
       </c>
       <c r="M19">
-        <v>1.053034697473665</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.008324555795886</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010993755413769</v>
+        <v>0.9898949247285155</v>
       </c>
       <c r="D20">
-        <v>1.033335666216273</v>
+        <v>1.010273721414265</v>
       </c>
       <c r="E20">
-        <v>1.024158475459583</v>
+        <v>0.9987410314697326</v>
       </c>
       <c r="F20">
-        <v>1.03678743995817</v>
+        <v>0.9925913008683166</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056296440569571</v>
+        <v>1.038245449483499</v>
       </c>
       <c r="J20">
-        <v>1.038107366679488</v>
+        <v>1.017821015386727</v>
       </c>
       <c r="K20">
-        <v>1.046816624954396</v>
+        <v>1.024138293758846</v>
       </c>
       <c r="L20">
-        <v>1.037789424545018</v>
+        <v>1.012806054504007</v>
       </c>
       <c r="M20">
-        <v>1.050212864785457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.006765686418275</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9987278972243848</v>
+        <v>0.9847205916909788</v>
       </c>
       <c r="D21">
-        <v>1.023543980995539</v>
+        <v>1.006502239578649</v>
       </c>
       <c r="E21">
-        <v>1.013499987573209</v>
+        <v>0.9946977776350651</v>
       </c>
       <c r="F21">
-        <v>1.026186143881773</v>
+        <v>0.9863559578621759</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051559047484942</v>
+        <v>1.036614027575658</v>
       </c>
       <c r="J21">
-        <v>1.028278900982913</v>
+        <v>1.014871326518867</v>
       </c>
       <c r="K21">
-        <v>1.038092624656512</v>
+        <v>1.021361463334912</v>
       </c>
       <c r="L21">
-        <v>1.028230034092834</v>
+        <v>1.009780303365551</v>
       </c>
       <c r="M21">
-        <v>1.040687833152469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.001600514843207</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9906329657231051</v>
+        <v>0.9813930717907253</v>
       </c>
       <c r="D22">
-        <v>1.017091310617998</v>
+        <v>1.004081796377909</v>
       </c>
       <c r="E22">
-        <v>1.006473279894418</v>
+        <v>0.9921058208623956</v>
       </c>
       <c r="F22">
-        <v>1.019201366861805</v>
+        <v>0.9823452933831176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048418505194177</v>
+        <v>1.035556558772904</v>
       </c>
       <c r="J22">
-        <v>1.021789864790663</v>
+        <v>1.012972236561226</v>
       </c>
       <c r="K22">
-        <v>1.032331622373997</v>
+        <v>1.019572823458689</v>
       </c>
       <c r="L22">
-        <v>1.021917581401586</v>
+        <v>1.007835302024674</v>
       </c>
       <c r="M22">
-        <v>1.034401802357389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9982747984169074</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,75 +1282,81 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9949631978414971</v>
+        <v>0.9831643146643135</v>
       </c>
       <c r="D23">
-        <v>1.020542061980173</v>
+        <v>1.00536971488234</v>
       </c>
       <c r="E23">
-        <v>1.010231306784882</v>
+        <v>0.9934847314684256</v>
       </c>
       <c r="F23">
-        <v>1.022936556201244</v>
+        <v>0.984480282394698</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05009974266702</v>
+        <v>1.036120222781847</v>
       </c>
       <c r="J23">
-        <v>1.025261244976038</v>
+        <v>1.013983319629686</v>
       </c>
       <c r="K23">
-        <v>1.035413621170292</v>
+        <v>1.020525177686332</v>
       </c>
       <c r="L23">
-        <v>1.025294586908774</v>
+        <v>1.008870538641931</v>
       </c>
       <c r="M23">
-        <v>1.037764311286989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.000045481991715</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011193455531641</v>
+        <v>0.989980464302483</v>
       </c>
       <c r="D24">
-        <v>1.03349521608643</v>
+        <v>1.010336146826484</v>
       </c>
       <c r="E24">
-        <v>1.024332109520001</v>
+        <v>0.9988080042589884</v>
       </c>
       <c r="F24">
-        <v>1.03696020748236</v>
+        <v>0.9926943730474057</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056373331132782</v>
+        <v>1.038272278265294</v>
       </c>
       <c r="J24">
-        <v>1.03826732841065</v>
+        <v>1.017869739135687</v>
       </c>
       <c r="K24">
-        <v>1.0469585879899</v>
+        <v>1.024184147380061</v>
       </c>
       <c r="L24">
-        <v>1.037944987834507</v>
+        <v>1.012856085064336</v>
       </c>
       <c r="M24">
-        <v>1.050367926897293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.006851009948867</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028592192885476</v>
+        <v>0.9975886293300738</v>
       </c>
       <c r="D25">
-        <v>1.047410120796231</v>
+        <v>1.015898236840211</v>
       </c>
       <c r="E25">
-        <v>1.039470982126706</v>
+        <v>1.00478224953063</v>
       </c>
       <c r="F25">
-        <v>1.052031815036748</v>
+        <v>1.001862131359765</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063037744892212</v>
+        <v>1.04063830792189</v>
       </c>
       <c r="J25">
-        <v>1.052194195828464</v>
+        <v>1.022197419125545</v>
       </c>
       <c r="K25">
-        <v>1.059314480730656</v>
+        <v>1.028254666240605</v>
       </c>
       <c r="L25">
-        <v>1.051485973413915</v>
+        <v>1.017306778088145</v>
       </c>
       <c r="M25">
-        <v>1.063872740228348</v>
+        <v>1.014431608751189</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003435200052894</v>
+        <v>1.029816075909231</v>
       </c>
       <c r="D2">
-        <v>1.020185237743593</v>
+        <v>1.034624077967305</v>
       </c>
       <c r="E2">
-        <v>1.009397277373848</v>
+        <v>1.029600393852309</v>
       </c>
       <c r="F2">
-        <v>1.008909198278688</v>
+        <v>1.040027720571122</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042426393957617</v>
+        <v>1.035887974341571</v>
       </c>
       <c r="J2">
-        <v>1.025513648102384</v>
+        <v>1.034960759601254</v>
       </c>
       <c r="K2">
-        <v>1.031370344183187</v>
+        <v>1.037423018030271</v>
       </c>
       <c r="L2">
-        <v>1.020727227424615</v>
+        <v>1.032413834043669</v>
       </c>
       <c r="M2">
-        <v>1.020245793660636</v>
+        <v>1.042811233608109</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007561487284761</v>
+        <v>1.030684986950767</v>
       </c>
       <c r="D3">
-        <v>1.023217247484617</v>
+        <v>1.035282926524373</v>
       </c>
       <c r="E3">
-        <v>1.012667446661392</v>
+        <v>1.030336523255732</v>
       </c>
       <c r="F3">
-        <v>1.013885090834323</v>
+        <v>1.041150918177463</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043670339808284</v>
+        <v>1.03610282454456</v>
       </c>
       <c r="J3">
-        <v>1.027848119733692</v>
+        <v>1.035471274015288</v>
       </c>
       <c r="K3">
-        <v>1.033561433730163</v>
+        <v>1.037891493489877</v>
       </c>
       <c r="L3">
-        <v>1.023140770744409</v>
+        <v>1.032958336787459</v>
       </c>
       <c r="M3">
-        <v>1.024343339229061</v>
+        <v>1.043743946924692</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010179443360333</v>
+        <v>1.031247696985663</v>
       </c>
       <c r="D4">
-        <v>1.025143593651711</v>
+        <v>1.035709605057179</v>
       </c>
       <c r="E4">
-        <v>1.014748011507965</v>
+        <v>1.030813627786323</v>
       </c>
       <c r="F4">
-        <v>1.017043526242176</v>
+        <v>1.041878544495064</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044451038673446</v>
+        <v>1.036240899560263</v>
       </c>
       <c r="J4">
-        <v>1.029326294229587</v>
+        <v>1.035801437902028</v>
       </c>
       <c r="K4">
-        <v>1.03494774071787</v>
+        <v>1.038194304356032</v>
       </c>
       <c r="L4">
-        <v>1.024671640858116</v>
+        <v>1.033310779432933</v>
       </c>
       <c r="M4">
-        <v>1.026940512323244</v>
+        <v>1.044347733295685</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011267991308823</v>
+        <v>1.031484370762737</v>
       </c>
       <c r="D5">
-        <v>1.02594516559031</v>
+        <v>1.035889065324612</v>
       </c>
       <c r="E5">
-        <v>1.015614461355695</v>
+        <v>1.031014387682581</v>
       </c>
       <c r="F5">
-        <v>1.018357201762342</v>
+        <v>1.042184639704969</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044773577758084</v>
+        <v>1.036298718935356</v>
       </c>
       <c r="J5">
-        <v>1.029940187002113</v>
+        <v>1.03594019639548</v>
       </c>
       <c r="K5">
-        <v>1.035523212918409</v>
+        <v>1.03832152745851</v>
       </c>
       <c r="L5">
-        <v>1.025308047709141</v>
+        <v>1.033458972274851</v>
       </c>
       <c r="M5">
-        <v>1.028019831688184</v>
+        <v>1.044601626359127</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011450068917425</v>
+        <v>1.031524115775025</v>
       </c>
       <c r="D6">
-        <v>1.026079275521142</v>
+        <v>1.035919202412894</v>
       </c>
       <c r="E6">
-        <v>1.015759467663342</v>
+        <v>1.031048106966819</v>
       </c>
       <c r="F6">
-        <v>1.018576960363465</v>
+        <v>1.042236046214531</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044827404879429</v>
+        <v>1.036308413714482</v>
       </c>
       <c r="J6">
-        <v>1.030042826869082</v>
+        <v>1.035963492042304</v>
       </c>
       <c r="K6">
-        <v>1.035619413071167</v>
+        <v>1.038342884139874</v>
       </c>
       <c r="L6">
-        <v>1.025414488791949</v>
+        <v>1.033483855995368</v>
       </c>
       <c r="M6">
-        <v>1.028200331837345</v>
+        <v>1.044644259697178</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010194035367843</v>
+        <v>1.031250858999645</v>
       </c>
       <c r="D7">
-        <v>1.0251543364425</v>
+        <v>1.035712002683401</v>
       </c>
       <c r="E7">
-        <v>1.014759621003937</v>
+        <v>1.030816309624225</v>
       </c>
       <c r="F7">
-        <v>1.017061134461137</v>
+        <v>1.041882633764712</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044455370553532</v>
+        <v>1.036241673039634</v>
       </c>
       <c r="J7">
-        <v>1.029334526403784</v>
+        <v>1.035803292167643</v>
       </c>
       <c r="K7">
-        <v>1.034955458748938</v>
+        <v>1.038196004627393</v>
       </c>
       <c r="L7">
-        <v>1.024680172455863</v>
+        <v>1.033312759492325</v>
       </c>
       <c r="M7">
-        <v>1.026954982908836</v>
+        <v>1.044351125587214</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004840726869914</v>
+        <v>1.030109631151911</v>
       </c>
       <c r="D8">
-        <v>1.021217438696601</v>
+        <v>1.034846663625759</v>
       </c>
       <c r="E8">
-        <v>1.010509952516876</v>
+        <v>1.029849009922039</v>
       </c>
       <c r="F8">
-        <v>1.010603853609182</v>
+        <v>1.0404071357078</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042851886538654</v>
+        <v>1.035960779817802</v>
       </c>
       <c r="J8">
-        <v>1.02630943576576</v>
+        <v>1.035133325590935</v>
       </c>
       <c r="K8">
-        <v>1.032117475972378</v>
+        <v>1.037581408007334</v>
       </c>
       <c r="L8">
-        <v>1.021549417189139</v>
+        <v>1.032597827251174</v>
       </c>
       <c r="M8">
-        <v>1.021642079446933</v>
+        <v>1.04312639455098</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9949893731269246</v>
+        <v>1.028102267655809</v>
       </c>
       <c r="D9">
-        <v>1.013995851779872</v>
+        <v>1.033324642390416</v>
       </c>
       <c r="E9">
-        <v>1.002737287423445</v>
+        <v>1.028150540373797</v>
       </c>
       <c r="F9">
-        <v>0.9987299075785774</v>
+        <v>1.037813595627136</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03983464536915</v>
+        <v>1.035458577953235</v>
       </c>
       <c r="J9">
-        <v>1.020720318808934</v>
+        <v>1.03395147614575</v>
       </c>
       <c r="K9">
-        <v>1.026865865085638</v>
+        <v>1.036495972299001</v>
       </c>
       <c r="L9">
-        <v>1.015786109614366</v>
+        <v>1.031338938527372</v>
       </c>
       <c r="M9">
-        <v>1.011843624811468</v>
+        <v>1.040970268550674</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9881114864184348</v>
+        <v>1.026766533743689</v>
       </c>
       <c r="D10">
-        <v>1.008972764031759</v>
+        <v>1.032311940949756</v>
       </c>
       <c r="E10">
-        <v>0.9973456772714999</v>
+        <v>1.027022373581495</v>
       </c>
       <c r="F10">
-        <v>0.9904422817688413</v>
+        <v>1.036088954114567</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037685017296018</v>
+        <v>1.035118946433982</v>
       </c>
       <c r="J10">
-        <v>1.01680485838226</v>
+        <v>1.033162771333962</v>
       </c>
       <c r="K10">
-        <v>1.023181880512162</v>
+        <v>1.03577076848386</v>
       </c>
       <c r="L10">
-        <v>1.011763022286431</v>
+        <v>1.030500357829066</v>
       </c>
       <c r="M10">
-        <v>1.004986275012317</v>
+        <v>1.039534234896497</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.985052644046151</v>
+        <v>1.026188755791213</v>
       </c>
       <c r="D11">
-        <v>1.006743988626498</v>
+        <v>1.031873917470973</v>
       </c>
       <c r="E11">
-        <v>0.9949567778560124</v>
+        <v>1.026534866776014</v>
       </c>
       <c r="F11">
-        <v>0.986756136937586</v>
+        <v>1.035343211312663</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036719206990102</v>
+        <v>1.034970743242354</v>
       </c>
       <c r="J11">
-        <v>1.015060747884098</v>
+        <v>1.032821074380962</v>
       </c>
       <c r="K11">
-        <v>1.02153983409467</v>
+        <v>1.035456384802274</v>
       </c>
       <c r="L11">
-        <v>1.009974432804853</v>
+        <v>1.030137417513462</v>
       </c>
       <c r="M11">
-        <v>1.001932210910188</v>
+        <v>1.038912751401932</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9839036879804892</v>
+        <v>1.02597423516669</v>
       </c>
       <c r="D12">
-        <v>1.00590766118251</v>
+        <v>1.031711290038052</v>
       </c>
       <c r="E12">
-        <v>0.9940608650202133</v>
+        <v>1.026353936289236</v>
       </c>
       <c r="F12">
-        <v>0.9853714204492291</v>
+        <v>1.035066365628131</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036354997332777</v>
+        <v>1.034915523142878</v>
       </c>
       <c r="J12">
-        <v>1.014405248043367</v>
+        <v>1.032694126426367</v>
       </c>
       <c r="K12">
-        <v>1.02092254823163</v>
+        <v>1.035339554742589</v>
       </c>
       <c r="L12">
-        <v>1.009302740946198</v>
+        <v>1.030002632028814</v>
       </c>
       <c r="M12">
-        <v>1.000784351794648</v>
+        <v>1.038681954593115</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9841507314866984</v>
+        <v>1.026020246394874</v>
       </c>
       <c r="D13">
-        <v>1.006087445618674</v>
+        <v>1.031746170803227</v>
       </c>
       <c r="E13">
-        <v>0.994253436045717</v>
+        <v>1.026392739624841</v>
       </c>
       <c r="F13">
-        <v>0.9856691636010396</v>
+        <v>1.035125742883551</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036433372279381</v>
+        <v>1.034927375764079</v>
       </c>
       <c r="J13">
-        <v>1.014546207379203</v>
+        <v>1.032721358377353</v>
       </c>
       <c r="K13">
-        <v>1.021055296374661</v>
+        <v>1.035364617613292</v>
       </c>
       <c r="L13">
-        <v>1.009447158439679</v>
+        <v>1.030031542747041</v>
       </c>
       <c r="M13">
-        <v>1.001031191709292</v>
+        <v>1.038731459029402</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9849579352862005</v>
+        <v>1.026171021569496</v>
       </c>
       <c r="D14">
-        <v>1.006675032464235</v>
+        <v>1.031860473118964</v>
       </c>
       <c r="E14">
-        <v>0.9948828987060413</v>
+        <v>1.026519907911588</v>
       </c>
       <c r="F14">
-        <v>0.986641997614212</v>
+        <v>1.035320323969264</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036689214020589</v>
+        <v>1.034966182213724</v>
       </c>
       <c r="J14">
-        <v>1.015006722388025</v>
+        <v>1.032810581358449</v>
       </c>
       <c r="K14">
-        <v>1.021488961035014</v>
+        <v>1.035446728688291</v>
       </c>
       <c r="L14">
-        <v>1.009919062087518</v>
+        <v>1.030126275552229</v>
       </c>
       <c r="M14">
-        <v>1.001837607022458</v>
+        <v>1.038893672646398</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.985453568542669</v>
+        <v>1.026263931333715</v>
       </c>
       <c r="D15">
-        <v>1.007035930964316</v>
+        <v>1.03193090839546</v>
       </c>
       <c r="E15">
-        <v>0.9952695831552276</v>
+        <v>1.026598280576078</v>
       </c>
       <c r="F15">
-        <v>0.9872393095991759</v>
+        <v>1.035440232534148</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036846116060244</v>
+        <v>1.034990069526143</v>
       </c>
       <c r="J15">
-        <v>1.015289435229691</v>
+        <v>1.032865551099377</v>
       </c>
       <c r="K15">
-        <v>1.021755171470906</v>
+        <v>1.03549731291013</v>
       </c>
       <c r="L15">
-        <v>1.010208835827233</v>
+        <v>1.03018464713118</v>
       </c>
       <c r="M15">
-        <v>1.002332662738505</v>
+        <v>1.038993624427069</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9883127379078861</v>
+        <v>1.026804891779017</v>
       </c>
       <c r="D16">
-        <v>1.009119515746624</v>
+        <v>1.032341021422767</v>
       </c>
       <c r="E16">
-        <v>0.9975030421414894</v>
+        <v>1.02705474893168</v>
       </c>
       <c r="F16">
-        <v>0.9906847915927075</v>
+        <v>1.036138468518781</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037748360175296</v>
+        <v>1.035128758206313</v>
       </c>
       <c r="J16">
-        <v>1.016919554527792</v>
+        <v>1.033185444868836</v>
       </c>
       <c r="K16">
-        <v>1.023289843922966</v>
+        <v>1.035791625472624</v>
       </c>
       <c r="L16">
-        <v>1.011880715968638</v>
+        <v>1.030524448669344</v>
       </c>
       <c r="M16">
-        <v>1.005187117742042</v>
+        <v>1.03957548767154</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9900841786674247</v>
+        <v>1.027144384392312</v>
       </c>
       <c r="D17">
-        <v>1.010411839238194</v>
+        <v>1.032598404797285</v>
       </c>
       <c r="E17">
-        <v>0.9988892126995975</v>
+        <v>1.027341347404525</v>
       </c>
       <c r="F17">
-        <v>0.9928193450419386</v>
+        <v>1.036576731778477</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03830480101811</v>
+        <v>1.035215448967314</v>
       </c>
       <c r="J17">
-        <v>1.01792881350934</v>
+        <v>1.033386057561737</v>
       </c>
       <c r="K17">
-        <v>1.024239741223265</v>
+        <v>1.035976142759832</v>
       </c>
       <c r="L17">
-        <v>1.012916746112215</v>
+        <v>1.030737643641956</v>
       </c>
       <c r="M17">
-        <v>1.006954459558773</v>
+        <v>1.039940563406036</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9911096922553121</v>
+        <v>1.027342462856223</v>
       </c>
       <c r="D18">
-        <v>1.011160471409298</v>
+        <v>1.032748578664415</v>
       </c>
       <c r="E18">
-        <v>0.9996925328663474</v>
+        <v>1.027508611528277</v>
       </c>
       <c r="F18">
-        <v>0.9940550434012007</v>
+        <v>1.036832463482204</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038626000441074</v>
+        <v>1.035265904145086</v>
       </c>
       <c r="J18">
-        <v>1.018512823732082</v>
+        <v>1.03350305387373</v>
       </c>
       <c r="K18">
-        <v>1.02478930174052</v>
+        <v>1.03608373322716</v>
       </c>
       <c r="L18">
-        <v>1.013516575704848</v>
+        <v>1.030862013057122</v>
       </c>
       <c r="M18">
-        <v>1.007977189695666</v>
+        <v>1.040153537574125</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9914580723213916</v>
+        <v>1.027410012324949</v>
       </c>
       <c r="D19">
-        <v>1.01141487203177</v>
+        <v>1.032799791915659</v>
       </c>
       <c r="E19">
-        <v>0.9999655727079062</v>
+        <v>1.027565660524345</v>
       </c>
       <c r="F19">
-        <v>0.9944748237911839</v>
+        <v>1.036919678361293</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03873495671175</v>
+        <v>1.035283089370402</v>
       </c>
       <c r="J19">
-        <v>1.01871117350991</v>
+        <v>1.033542943565755</v>
       </c>
       <c r="K19">
-        <v>1.024975933935377</v>
+        <v>1.036120412771538</v>
       </c>
       <c r="L19">
-        <v>1.0137203538178</v>
+        <v>1.030904422561995</v>
       </c>
       <c r="M19">
-        <v>1.008324555795886</v>
+        <v>1.040226161619033</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9898949247285155</v>
+        <v>1.02710795402315</v>
       </c>
       <c r="D20">
-        <v>1.010273721414265</v>
+        <v>1.032570785177029</v>
       </c>
       <c r="E20">
-        <v>0.9987410314697326</v>
+        <v>1.027310588151677</v>
       </c>
       <c r="F20">
-        <v>0.9925913008683166</v>
+        <v>1.036529699915532</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038245449483499</v>
+        <v>1.035206159251109</v>
       </c>
       <c r="J20">
-        <v>1.017821015386727</v>
+        <v>1.033364535540081</v>
       </c>
       <c r="K20">
-        <v>1.024138293758846</v>
+        <v>1.035956349449992</v>
       </c>
       <c r="L20">
-        <v>1.012806054504007</v>
+        <v>1.030714768135552</v>
       </c>
       <c r="M20">
-        <v>1.006765686418275</v>
+        <v>1.039901390955656</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9847205916909788</v>
+        <v>1.026126619494327</v>
       </c>
       <c r="D21">
-        <v>1.006502239578649</v>
+        <v>1.03182681188188</v>
       </c>
       <c r="E21">
-        <v>0.9946977776350651</v>
+        <v>1.02648245583369</v>
       </c>
       <c r="F21">
-        <v>0.9863559578621759</v>
+        <v>1.035263020368811</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036614027575658</v>
+        <v>1.034954759393296</v>
       </c>
       <c r="J21">
-        <v>1.014871326518867</v>
+        <v>1.032784308138133</v>
       </c>
       <c r="K21">
-        <v>1.021361463334912</v>
+        <v>1.035422550505091</v>
       </c>
       <c r="L21">
-        <v>1.009780303365551</v>
+        <v>1.030098378356388</v>
       </c>
       <c r="M21">
-        <v>1.001600514843207</v>
+        <v>1.03884590339982</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9813930717907253</v>
+        <v>1.025510147409958</v>
       </c>
       <c r="D22">
-        <v>1.004081796377909</v>
+        <v>1.031359475136303</v>
       </c>
       <c r="E22">
-        <v>0.9921058208623956</v>
+        <v>1.025962651977069</v>
       </c>
       <c r="F22">
-        <v>0.9823452933831176</v>
+        <v>1.034467513725503</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035556558772904</v>
+        <v>1.034795706179134</v>
       </c>
       <c r="J22">
-        <v>1.012972236561226</v>
+        <v>1.03241934332975</v>
       </c>
       <c r="K22">
-        <v>1.019572823458689</v>
+        <v>1.035086618193413</v>
       </c>
       <c r="L22">
-        <v>1.007835302024674</v>
+        <v>1.029710984693766</v>
       </c>
       <c r="M22">
-        <v>0.9982747984169074</v>
+        <v>1.038182565035536</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9831643146643135</v>
+        <v>1.025836900127369</v>
       </c>
       <c r="D23">
-        <v>1.00536971488234</v>
+        <v>1.031607178063857</v>
       </c>
       <c r="E23">
-        <v>0.9934847314684256</v>
+        <v>1.026238126326933</v>
       </c>
       <c r="F23">
-        <v>0.984480282394698</v>
+        <v>1.034889140925181</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036120222781847</v>
+        <v>1.034880116790506</v>
       </c>
       <c r="J23">
-        <v>1.013983319629686</v>
+        <v>1.032612832252006</v>
       </c>
       <c r="K23">
-        <v>1.020525177686332</v>
+        <v>1.035264731491643</v>
       </c>
       <c r="L23">
-        <v>1.008870538641931</v>
+        <v>1.029916334349736</v>
       </c>
       <c r="M23">
-        <v>1.000045481991715</v>
+        <v>1.038534185742592</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.989980464302483</v>
+        <v>1.027124415159226</v>
       </c>
       <c r="D24">
-        <v>1.010336146826484</v>
+        <v>1.032583265151041</v>
       </c>
       <c r="E24">
-        <v>0.9988080042589884</v>
+        <v>1.027324486637313</v>
       </c>
       <c r="F24">
-        <v>0.9926943730474057</v>
+        <v>1.0365509512804</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038272278265294</v>
+        <v>1.035210357214156</v>
       </c>
       <c r="J24">
-        <v>1.017869739135687</v>
+        <v>1.033374260469976</v>
       </c>
       <c r="K24">
-        <v>1.024184147380061</v>
+        <v>1.035965293304025</v>
       </c>
       <c r="L24">
-        <v>1.012856085064336</v>
+        <v>1.030725104541689</v>
       </c>
       <c r="M24">
-        <v>1.006851009948867</v>
+        <v>1.039919091201938</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9975886293300738</v>
+        <v>1.028620782295032</v>
       </c>
       <c r="D25">
-        <v>1.015898236840211</v>
+        <v>1.033717778741112</v>
       </c>
       <c r="E25">
-        <v>1.00478224953063</v>
+        <v>1.028588911091331</v>
       </c>
       <c r="F25">
-        <v>1.001862131359765</v>
+        <v>1.038483317284896</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04063830792189</v>
+        <v>1.035589262906715</v>
       </c>
       <c r="J25">
-        <v>1.022197419125545</v>
+        <v>1.03425715866987</v>
       </c>
       <c r="K25">
-        <v>1.028254666240605</v>
+        <v>1.036776866265035</v>
       </c>
       <c r="L25">
-        <v>1.017306778088145</v>
+        <v>1.03166427657412</v>
       </c>
       <c r="M25">
-        <v>1.014431608751189</v>
+        <v>1.041527437474784</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029816075909231</v>
+        <v>1.003435200052894</v>
       </c>
       <c r="D2">
-        <v>1.034624077967305</v>
+        <v>1.020185237743593</v>
       </c>
       <c r="E2">
-        <v>1.029600393852309</v>
+        <v>1.009397277373848</v>
       </c>
       <c r="F2">
-        <v>1.040027720571122</v>
+        <v>1.008909198278688</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035887974341571</v>
+        <v>1.042426393957617</v>
       </c>
       <c r="J2">
-        <v>1.034960759601254</v>
+        <v>1.025513648102384</v>
       </c>
       <c r="K2">
-        <v>1.037423018030271</v>
+        <v>1.031370344183187</v>
       </c>
       <c r="L2">
-        <v>1.032413834043669</v>
+        <v>1.020727227424614</v>
       </c>
       <c r="M2">
-        <v>1.042811233608109</v>
+        <v>1.020245793660636</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030684986950767</v>
+        <v>1.007561487284762</v>
       </c>
       <c r="D3">
-        <v>1.035282926524373</v>
+        <v>1.023217247484617</v>
       </c>
       <c r="E3">
-        <v>1.030336523255732</v>
+        <v>1.012667446661393</v>
       </c>
       <c r="F3">
-        <v>1.041150918177463</v>
+        <v>1.013885090834324</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03610282454456</v>
+        <v>1.043670339808285</v>
       </c>
       <c r="J3">
-        <v>1.035471274015288</v>
+        <v>1.027848119733693</v>
       </c>
       <c r="K3">
-        <v>1.037891493489877</v>
+        <v>1.033561433730164</v>
       </c>
       <c r="L3">
-        <v>1.032958336787459</v>
+        <v>1.023140770744409</v>
       </c>
       <c r="M3">
-        <v>1.043743946924692</v>
+        <v>1.024343339229062</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031247696985663</v>
+        <v>1.010179443360332</v>
       </c>
       <c r="D4">
-        <v>1.035709605057179</v>
+        <v>1.02514359365171</v>
       </c>
       <c r="E4">
-        <v>1.030813627786323</v>
+        <v>1.014748011507965</v>
       </c>
       <c r="F4">
-        <v>1.041878544495064</v>
+        <v>1.017043526242175</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036240899560263</v>
+        <v>1.044451038673446</v>
       </c>
       <c r="J4">
-        <v>1.035801437902028</v>
+        <v>1.029326294229587</v>
       </c>
       <c r="K4">
-        <v>1.038194304356032</v>
+        <v>1.034947740717869</v>
       </c>
       <c r="L4">
-        <v>1.033310779432933</v>
+        <v>1.024671640858115</v>
       </c>
       <c r="M4">
-        <v>1.044347733295685</v>
+        <v>1.026940512323244</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031484370762737</v>
+        <v>1.011267991308823</v>
       </c>
       <c r="D5">
-        <v>1.035889065324612</v>
+        <v>1.025945165590311</v>
       </c>
       <c r="E5">
-        <v>1.031014387682581</v>
+        <v>1.015614461355695</v>
       </c>
       <c r="F5">
-        <v>1.042184639704969</v>
+        <v>1.018357201762342</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036298718935356</v>
+        <v>1.044773577758084</v>
       </c>
       <c r="J5">
-        <v>1.03594019639548</v>
+        <v>1.029940187002114</v>
       </c>
       <c r="K5">
-        <v>1.03832152745851</v>
+        <v>1.035523212918409</v>
       </c>
       <c r="L5">
-        <v>1.033458972274851</v>
+        <v>1.025308047709141</v>
       </c>
       <c r="M5">
-        <v>1.044601626359127</v>
+        <v>1.028019831688184</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031524115775025</v>
+        <v>1.011450068917425</v>
       </c>
       <c r="D6">
-        <v>1.035919202412894</v>
+        <v>1.026079275521142</v>
       </c>
       <c r="E6">
-        <v>1.031048106966819</v>
+        <v>1.015759467663341</v>
       </c>
       <c r="F6">
-        <v>1.042236046214531</v>
+        <v>1.018576960363465</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036308413714482</v>
+        <v>1.044827404879429</v>
       </c>
       <c r="J6">
-        <v>1.035963492042304</v>
+        <v>1.030042826869081</v>
       </c>
       <c r="K6">
-        <v>1.038342884139874</v>
+        <v>1.035619413071167</v>
       </c>
       <c r="L6">
-        <v>1.033483855995368</v>
+        <v>1.025414488791949</v>
       </c>
       <c r="M6">
-        <v>1.044644259697178</v>
+        <v>1.028200331837344</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031250858999645</v>
+        <v>1.010194035367842</v>
       </c>
       <c r="D7">
-        <v>1.035712002683401</v>
+        <v>1.0251543364425</v>
       </c>
       <c r="E7">
-        <v>1.030816309624225</v>
+        <v>1.014759621003937</v>
       </c>
       <c r="F7">
-        <v>1.041882633764712</v>
+        <v>1.017061134461136</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036241673039634</v>
+        <v>1.044455370553531</v>
       </c>
       <c r="J7">
-        <v>1.035803292167643</v>
+        <v>1.029334526403784</v>
       </c>
       <c r="K7">
-        <v>1.038196004627393</v>
+        <v>1.034955458748938</v>
       </c>
       <c r="L7">
-        <v>1.033312759492325</v>
+        <v>1.024680172455863</v>
       </c>
       <c r="M7">
-        <v>1.044351125587214</v>
+        <v>1.026954982908836</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030109631151911</v>
+        <v>1.004840726869913</v>
       </c>
       <c r="D8">
-        <v>1.034846663625759</v>
+        <v>1.0212174386966</v>
       </c>
       <c r="E8">
-        <v>1.029849009922039</v>
+        <v>1.010509952516875</v>
       </c>
       <c r="F8">
-        <v>1.0404071357078</v>
+        <v>1.010603853609181</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035960779817802</v>
+        <v>1.042851886538654</v>
       </c>
       <c r="J8">
-        <v>1.035133325590935</v>
+        <v>1.02630943576576</v>
       </c>
       <c r="K8">
-        <v>1.037581408007334</v>
+        <v>1.032117475972378</v>
       </c>
       <c r="L8">
-        <v>1.032597827251174</v>
+        <v>1.021549417189138</v>
       </c>
       <c r="M8">
-        <v>1.04312639455098</v>
+        <v>1.021642079446932</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028102267655809</v>
+        <v>0.9949893731269245</v>
       </c>
       <c r="D9">
-        <v>1.033324642390416</v>
+        <v>1.013995851779872</v>
       </c>
       <c r="E9">
-        <v>1.028150540373797</v>
+        <v>1.002737287423445</v>
       </c>
       <c r="F9">
-        <v>1.037813595627136</v>
+        <v>0.998729907578577</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035458577953235</v>
+        <v>1.03983464536915</v>
       </c>
       <c r="J9">
-        <v>1.03395147614575</v>
+        <v>1.020720318808934</v>
       </c>
       <c r="K9">
-        <v>1.036495972299001</v>
+        <v>1.026865865085638</v>
       </c>
       <c r="L9">
-        <v>1.031338938527372</v>
+        <v>1.015786109614366</v>
       </c>
       <c r="M9">
-        <v>1.040970268550674</v>
+        <v>1.011843624811468</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026766533743689</v>
+        <v>0.988111486418436</v>
       </c>
       <c r="D10">
-        <v>1.032311940949756</v>
+        <v>1.00897276403176</v>
       </c>
       <c r="E10">
-        <v>1.027022373581495</v>
+        <v>0.997345677271501</v>
       </c>
       <c r="F10">
-        <v>1.036088954114567</v>
+        <v>0.9904422817688424</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035118946433982</v>
+        <v>1.037685017296019</v>
       </c>
       <c r="J10">
-        <v>1.033162771333962</v>
+        <v>1.016804858382261</v>
       </c>
       <c r="K10">
-        <v>1.03577076848386</v>
+        <v>1.023181880512163</v>
       </c>
       <c r="L10">
-        <v>1.030500357829066</v>
+        <v>1.011763022286432</v>
       </c>
       <c r="M10">
-        <v>1.039534234896497</v>
+        <v>1.004986275012318</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026188755791213</v>
+        <v>0.9850526440461508</v>
       </c>
       <c r="D11">
-        <v>1.031873917470973</v>
+        <v>1.006743988626498</v>
       </c>
       <c r="E11">
-        <v>1.026534866776014</v>
+        <v>0.9949567778560122</v>
       </c>
       <c r="F11">
-        <v>1.035343211312663</v>
+        <v>0.986756136937586</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034970743242354</v>
+        <v>1.036719206990102</v>
       </c>
       <c r="J11">
-        <v>1.032821074380962</v>
+        <v>1.015060747884098</v>
       </c>
       <c r="K11">
-        <v>1.035456384802274</v>
+        <v>1.02153983409467</v>
       </c>
       <c r="L11">
-        <v>1.030137417513462</v>
+        <v>1.009974432804853</v>
       </c>
       <c r="M11">
-        <v>1.038912751401932</v>
+        <v>1.001932210910189</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02597423516669</v>
+        <v>0.9839036879804898</v>
       </c>
       <c r="D12">
-        <v>1.031711290038052</v>
+        <v>1.00590766118251</v>
       </c>
       <c r="E12">
-        <v>1.026353936289236</v>
+        <v>0.9940608650202137</v>
       </c>
       <c r="F12">
-        <v>1.035066365628131</v>
+        <v>0.9853714204492294</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034915523142878</v>
+        <v>1.036354997332777</v>
       </c>
       <c r="J12">
-        <v>1.032694126426367</v>
+        <v>1.014405248043368</v>
       </c>
       <c r="K12">
-        <v>1.035339554742589</v>
+        <v>1.02092254823163</v>
       </c>
       <c r="L12">
-        <v>1.030002632028814</v>
+        <v>1.009302740946198</v>
       </c>
       <c r="M12">
-        <v>1.038681954593115</v>
+        <v>1.000784351794648</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026020246394874</v>
+        <v>0.984150731486698</v>
       </c>
       <c r="D13">
-        <v>1.031746170803227</v>
+        <v>1.006087445618673</v>
       </c>
       <c r="E13">
-        <v>1.026392739624841</v>
+        <v>0.9942534360457168</v>
       </c>
       <c r="F13">
-        <v>1.035125742883551</v>
+        <v>0.9856691636010395</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034927375764079</v>
+        <v>1.036433372279381</v>
       </c>
       <c r="J13">
-        <v>1.032721358377353</v>
+        <v>1.014546207379203</v>
       </c>
       <c r="K13">
-        <v>1.035364617613292</v>
+        <v>1.021055296374661</v>
       </c>
       <c r="L13">
-        <v>1.030031542747041</v>
+        <v>1.009447158439678</v>
       </c>
       <c r="M13">
-        <v>1.038731459029402</v>
+        <v>1.001031191709292</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026171021569496</v>
+        <v>0.9849579352862005</v>
       </c>
       <c r="D14">
-        <v>1.031860473118964</v>
+        <v>1.006675032464235</v>
       </c>
       <c r="E14">
-        <v>1.026519907911588</v>
+        <v>0.9948828987060413</v>
       </c>
       <c r="F14">
-        <v>1.035320323969264</v>
+        <v>0.9866419976142115</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034966182213724</v>
+        <v>1.036689214020589</v>
       </c>
       <c r="J14">
-        <v>1.032810581358449</v>
+        <v>1.015006722388025</v>
       </c>
       <c r="K14">
-        <v>1.035446728688291</v>
+        <v>1.021488961035014</v>
       </c>
       <c r="L14">
-        <v>1.030126275552229</v>
+        <v>1.009919062087518</v>
       </c>
       <c r="M14">
-        <v>1.038893672646398</v>
+        <v>1.001837607022458</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026263931333715</v>
+        <v>0.98545356854267</v>
       </c>
       <c r="D15">
-        <v>1.03193090839546</v>
+        <v>1.007035930964317</v>
       </c>
       <c r="E15">
-        <v>1.026598280576078</v>
+        <v>0.9952695831552284</v>
       </c>
       <c r="F15">
-        <v>1.035440232534148</v>
+        <v>0.9872393095991771</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034990069526143</v>
+        <v>1.036846116060245</v>
       </c>
       <c r="J15">
-        <v>1.032865551099377</v>
+        <v>1.015289435229692</v>
       </c>
       <c r="K15">
-        <v>1.03549731291013</v>
+        <v>1.021755171470907</v>
       </c>
       <c r="L15">
-        <v>1.03018464713118</v>
+        <v>1.010208835827234</v>
       </c>
       <c r="M15">
-        <v>1.038993624427069</v>
+        <v>1.002332662738506</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026804891779017</v>
+        <v>0.9883127379078851</v>
       </c>
       <c r="D16">
-        <v>1.032341021422767</v>
+        <v>1.009119515746624</v>
       </c>
       <c r="E16">
-        <v>1.02705474893168</v>
+        <v>0.9975030421414881</v>
       </c>
       <c r="F16">
-        <v>1.036138468518781</v>
+        <v>0.9906847915927071</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035128758206313</v>
+        <v>1.037748360175295</v>
       </c>
       <c r="J16">
-        <v>1.033185444868836</v>
+        <v>1.016919554527791</v>
       </c>
       <c r="K16">
-        <v>1.035791625472624</v>
+        <v>1.023289843922965</v>
       </c>
       <c r="L16">
-        <v>1.030524448669344</v>
+        <v>1.011880715968637</v>
       </c>
       <c r="M16">
-        <v>1.03957548767154</v>
+        <v>1.005187117742042</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027144384392312</v>
+        <v>0.9900841786674249</v>
       </c>
       <c r="D17">
-        <v>1.032598404797285</v>
+        <v>1.010411839238194</v>
       </c>
       <c r="E17">
-        <v>1.027341347404525</v>
+        <v>0.9988892126995975</v>
       </c>
       <c r="F17">
-        <v>1.036576731778477</v>
+        <v>0.9928193450419388</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035215448967314</v>
+        <v>1.038304801018111</v>
       </c>
       <c r="J17">
-        <v>1.033386057561737</v>
+        <v>1.01792881350934</v>
       </c>
       <c r="K17">
-        <v>1.035976142759832</v>
+        <v>1.024239741223266</v>
       </c>
       <c r="L17">
-        <v>1.030737643641956</v>
+        <v>1.012916746112216</v>
       </c>
       <c r="M17">
-        <v>1.039940563406036</v>
+        <v>1.006954459558774</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027342462856223</v>
+        <v>0.9911096922553118</v>
       </c>
       <c r="D18">
-        <v>1.032748578664415</v>
+        <v>1.011160471409298</v>
       </c>
       <c r="E18">
-        <v>1.027508611528277</v>
+        <v>0.9996925328663471</v>
       </c>
       <c r="F18">
-        <v>1.036832463482204</v>
+        <v>0.9940550434012004</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035265904145086</v>
+        <v>1.038626000441074</v>
       </c>
       <c r="J18">
-        <v>1.03350305387373</v>
+        <v>1.018512823732082</v>
       </c>
       <c r="K18">
-        <v>1.03608373322716</v>
+        <v>1.02478930174052</v>
       </c>
       <c r="L18">
-        <v>1.030862013057122</v>
+        <v>1.013516575704847</v>
       </c>
       <c r="M18">
-        <v>1.040153537574125</v>
+        <v>1.007977189695666</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027410012324949</v>
+        <v>0.9914580723213917</v>
       </c>
       <c r="D19">
-        <v>1.032799791915659</v>
+        <v>1.01141487203177</v>
       </c>
       <c r="E19">
-        <v>1.027565660524345</v>
+        <v>0.999965572707906</v>
       </c>
       <c r="F19">
-        <v>1.036919678361293</v>
+        <v>0.9944748237911839</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035283089370402</v>
+        <v>1.03873495671175</v>
       </c>
       <c r="J19">
-        <v>1.033542943565755</v>
+        <v>1.01871117350991</v>
       </c>
       <c r="K19">
-        <v>1.036120412771538</v>
+        <v>1.024975933935377</v>
       </c>
       <c r="L19">
-        <v>1.030904422561995</v>
+        <v>1.0137203538178</v>
       </c>
       <c r="M19">
-        <v>1.040226161619033</v>
+        <v>1.008324555795886</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02710795402315</v>
+        <v>0.9898949247285149</v>
       </c>
       <c r="D20">
-        <v>1.032570785177029</v>
+        <v>1.010273721414265</v>
       </c>
       <c r="E20">
-        <v>1.027310588151677</v>
+        <v>0.9987410314697317</v>
       </c>
       <c r="F20">
-        <v>1.036529699915532</v>
+        <v>0.9925913008683159</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035206159251109</v>
+        <v>1.038245449483498</v>
       </c>
       <c r="J20">
-        <v>1.033364535540081</v>
+        <v>1.017821015386726</v>
       </c>
       <c r="K20">
-        <v>1.035956349449992</v>
+        <v>1.024138293758846</v>
       </c>
       <c r="L20">
-        <v>1.030714768135552</v>
+        <v>1.012806054504006</v>
       </c>
       <c r="M20">
-        <v>1.039901390955656</v>
+        <v>1.006765686418275</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026126619494327</v>
+        <v>0.9847205916909783</v>
       </c>
       <c r="D21">
-        <v>1.03182681188188</v>
+        <v>1.006502239578649</v>
       </c>
       <c r="E21">
-        <v>1.02648245583369</v>
+        <v>0.9946977776350645</v>
       </c>
       <c r="F21">
-        <v>1.035263020368811</v>
+        <v>0.9863559578621756</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034954759393296</v>
+        <v>1.036614027575657</v>
       </c>
       <c r="J21">
-        <v>1.032784308138133</v>
+        <v>1.014871326518867</v>
       </c>
       <c r="K21">
-        <v>1.035422550505091</v>
+        <v>1.021361463334912</v>
       </c>
       <c r="L21">
-        <v>1.030098378356388</v>
+        <v>1.00978030336555</v>
       </c>
       <c r="M21">
-        <v>1.03884590339982</v>
+        <v>1.001600514843206</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025510147409958</v>
+        <v>0.9813930717907249</v>
       </c>
       <c r="D22">
-        <v>1.031359475136303</v>
+        <v>1.004081796377909</v>
       </c>
       <c r="E22">
-        <v>1.025962651977069</v>
+        <v>0.9921058208623952</v>
       </c>
       <c r="F22">
-        <v>1.034467513725503</v>
+        <v>0.9823452933831175</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034795706179134</v>
+        <v>1.035556558772904</v>
       </c>
       <c r="J22">
-        <v>1.03241934332975</v>
+        <v>1.012972236561226</v>
       </c>
       <c r="K22">
-        <v>1.035086618193413</v>
+        <v>1.019572823458688</v>
       </c>
       <c r="L22">
-        <v>1.029710984693766</v>
+        <v>1.007835302024673</v>
       </c>
       <c r="M22">
-        <v>1.038182565035536</v>
+        <v>0.9982747984169071</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025836900127369</v>
+        <v>0.9831643146643139</v>
       </c>
       <c r="D23">
-        <v>1.031607178063857</v>
+        <v>1.00536971488234</v>
       </c>
       <c r="E23">
-        <v>1.026238126326933</v>
+        <v>0.9934847314684259</v>
       </c>
       <c r="F23">
-        <v>1.034889140925181</v>
+        <v>0.9844802823946983</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034880116790506</v>
+        <v>1.036120222781847</v>
       </c>
       <c r="J23">
-        <v>1.032612832252006</v>
+        <v>1.013983319629687</v>
       </c>
       <c r="K23">
-        <v>1.035264731491643</v>
+        <v>1.020525177686332</v>
       </c>
       <c r="L23">
-        <v>1.029916334349736</v>
+        <v>1.008870538641932</v>
       </c>
       <c r="M23">
-        <v>1.038534185742592</v>
+        <v>1.000045481991716</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027124415159226</v>
+        <v>0.9899804643024831</v>
       </c>
       <c r="D24">
-        <v>1.032583265151041</v>
+        <v>1.010336146826484</v>
       </c>
       <c r="E24">
-        <v>1.027324486637313</v>
+        <v>0.9988080042589885</v>
       </c>
       <c r="F24">
-        <v>1.0365509512804</v>
+        <v>0.9926943730474057</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035210357214156</v>
+        <v>1.038272278265294</v>
       </c>
       <c r="J24">
-        <v>1.033374260469976</v>
+        <v>1.017869739135687</v>
       </c>
       <c r="K24">
-        <v>1.035965293304025</v>
+        <v>1.024184147380061</v>
       </c>
       <c r="L24">
-        <v>1.030725104541689</v>
+        <v>1.012856085064336</v>
       </c>
       <c r="M24">
-        <v>1.039919091201938</v>
+        <v>1.006851009948867</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028620782295032</v>
+        <v>0.9975886293300744</v>
       </c>
       <c r="D25">
-        <v>1.033717778741112</v>
+        <v>1.015898236840211</v>
       </c>
       <c r="E25">
-        <v>1.028588911091331</v>
+        <v>1.004782249530631</v>
       </c>
       <c r="F25">
-        <v>1.038483317284896</v>
+        <v>1.001862131359766</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035589262906715</v>
+        <v>1.040638307921891</v>
       </c>
       <c r="J25">
-        <v>1.03425715866987</v>
+        <v>1.022197419125546</v>
       </c>
       <c r="K25">
-        <v>1.036776866265035</v>
+        <v>1.028254666240606</v>
       </c>
       <c r="L25">
-        <v>1.03166427657412</v>
+        <v>1.017306778088145</v>
       </c>
       <c r="M25">
-        <v>1.041527437474784</v>
+        <v>1.014431608751189</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003435200052894</v>
+        <v>1.031551962701232</v>
       </c>
       <c r="D2">
-        <v>1.020185237743593</v>
+        <v>1.047113616826691</v>
       </c>
       <c r="E2">
-        <v>1.009397277373848</v>
+        <v>1.042579855323791</v>
       </c>
       <c r="F2">
-        <v>1.008909198278688</v>
+        <v>1.052429460838977</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042426393957617</v>
+        <v>1.06223430963148</v>
       </c>
       <c r="J2">
-        <v>1.025513648102384</v>
+        <v>1.052828241600739</v>
       </c>
       <c r="K2">
-        <v>1.031370344183187</v>
+        <v>1.057953402720996</v>
       </c>
       <c r="L2">
-        <v>1.020727227424614</v>
+        <v>1.053476223067305</v>
       </c>
       <c r="M2">
-        <v>1.020245793660636</v>
+        <v>1.063203676736611</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.058593639564058</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.052048198697457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007561487284762</v>
+        <v>1.03687960873387</v>
       </c>
       <c r="D3">
-        <v>1.023217247484617</v>
+        <v>1.050766649475991</v>
       </c>
       <c r="E3">
-        <v>1.012667446661393</v>
+        <v>1.046822972511622</v>
       </c>
       <c r="F3">
-        <v>1.013885090834324</v>
+        <v>1.056197072574777</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043670339808285</v>
+        <v>1.063682809605243</v>
       </c>
       <c r="J3">
-        <v>1.027848119733693</v>
+        <v>1.056413007474975</v>
       </c>
       <c r="K3">
-        <v>1.033561433730164</v>
+        <v>1.06078869303034</v>
       </c>
       <c r="L3">
-        <v>1.023140770744409</v>
+        <v>1.056889847214086</v>
       </c>
       <c r="M3">
-        <v>1.024343339229062</v>
+        <v>1.06615805833543</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.060931774158306</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.054050311654718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010179443360332</v>
+        <v>1.040252549099738</v>
       </c>
       <c r="D4">
-        <v>1.02514359365171</v>
+        <v>1.053081764822934</v>
       </c>
       <c r="E4">
-        <v>1.014748011507965</v>
+        <v>1.049514207321892</v>
       </c>
       <c r="F4">
-        <v>1.017043526242175</v>
+        <v>1.058587887370102</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044451038673446</v>
+        <v>1.064586879208446</v>
       </c>
       <c r="J4">
-        <v>1.029326294229587</v>
+        <v>1.058679776388964</v>
       </c>
       <c r="K4">
-        <v>1.034947740717869</v>
+        <v>1.062579122439413</v>
       </c>
       <c r="L4">
-        <v>1.024671640858115</v>
+        <v>1.059049625614241</v>
       </c>
       <c r="M4">
-        <v>1.026940512323244</v>
+        <v>1.068027118126677</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.062410967840036</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.055317131464223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011267991308823</v>
+        <v>1.041660946513246</v>
       </c>
       <c r="D5">
-        <v>1.025945165590311</v>
+        <v>1.054051175075713</v>
       </c>
       <c r="E5">
-        <v>1.015614461355695</v>
+        <v>1.050640767329937</v>
       </c>
       <c r="F5">
-        <v>1.018357201762342</v>
+        <v>1.059588357107339</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044773577758084</v>
+        <v>1.064963077211722</v>
       </c>
       <c r="J5">
-        <v>1.029940187002114</v>
+        <v>1.059627878997992</v>
       </c>
       <c r="K5">
-        <v>1.035523212918409</v>
+        <v>1.063328884235159</v>
       </c>
       <c r="L5">
-        <v>1.025308047709141</v>
+        <v>1.059953873305499</v>
       </c>
       <c r="M5">
-        <v>1.028019831688184</v>
+        <v>1.068809186998653</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.063029904581321</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.055854277301036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011450068917425</v>
+        <v>1.041905597468987</v>
       </c>
       <c r="D6">
-        <v>1.026079275521142</v>
+        <v>1.054222277115577</v>
       </c>
       <c r="E6">
-        <v>1.015759467663341</v>
+        <v>1.050838576551169</v>
       </c>
       <c r="F6">
-        <v>1.018576960363465</v>
+        <v>1.059763311105039</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044827404879429</v>
+        <v>1.065030516294824</v>
       </c>
       <c r="J6">
-        <v>1.030042826869081</v>
+        <v>1.059795322730251</v>
       </c>
       <c r="K6">
-        <v>1.035619413071167</v>
+        <v>1.063463071633245</v>
       </c>
       <c r="L6">
-        <v>1.025414488791949</v>
+        <v>1.06011432638268</v>
       </c>
       <c r="M6">
-        <v>1.028200331837344</v>
+        <v>1.068947451177813</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.063139328116327</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.05595771637476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010194035367842</v>
+        <v>1.040296281409056</v>
       </c>
       <c r="D7">
-        <v>1.0251543364425</v>
+        <v>1.053119066440789</v>
       </c>
       <c r="E7">
-        <v>1.014759621003937</v>
+        <v>1.049554790804628</v>
       </c>
       <c r="F7">
-        <v>1.017061134461136</v>
+        <v>1.058621896608508</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044455370553531</v>
+        <v>1.064604713373331</v>
       </c>
       <c r="J7">
-        <v>1.029334526403784</v>
+        <v>1.058716767847309</v>
       </c>
       <c r="K7">
-        <v>1.034955458748938</v>
+        <v>1.062613227080559</v>
       </c>
       <c r="L7">
-        <v>1.024680172455863</v>
+        <v>1.059086961051185</v>
       </c>
       <c r="M7">
-        <v>1.026954982908836</v>
+        <v>1.068057989181487</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.062435399495644</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.055360944296343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004840726869913</v>
+        <v>1.033400310196818</v>
       </c>
       <c r="D8">
-        <v>1.0212174386966</v>
+        <v>1.04838952182337</v>
       </c>
       <c r="E8">
-        <v>1.010509952516875</v>
+        <v>1.044058379215994</v>
       </c>
       <c r="F8">
-        <v>1.010603853609181</v>
+        <v>1.053739215752673</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042851886538654</v>
+        <v>1.062747131484521</v>
       </c>
       <c r="J8">
-        <v>1.02630943576576</v>
+        <v>1.054082093853718</v>
       </c>
       <c r="K8">
-        <v>1.032117475972378</v>
+        <v>1.058951616956554</v>
       </c>
       <c r="L8">
-        <v>1.021549417189138</v>
+        <v>1.054672876601134</v>
       </c>
       <c r="M8">
-        <v>1.021642079446932</v>
+        <v>1.06423732235397</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.05941168045479</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.0527764800424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9949893731269245</v>
+        <v>1.020603565309448</v>
       </c>
       <c r="D9">
-        <v>1.013995851779872</v>
+        <v>1.039623459076153</v>
       </c>
       <c r="E9">
-        <v>1.002737287423445</v>
+        <v>1.033891066481478</v>
       </c>
       <c r="F9">
-        <v>0.998729907578577</v>
+        <v>1.044721066279905</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03983464536915</v>
+        <v>1.059188922137692</v>
       </c>
       <c r="J9">
-        <v>1.020720318808934</v>
+        <v>1.045449164524622</v>
       </c>
       <c r="K9">
-        <v>1.026865865085638</v>
+        <v>1.052104796005998</v>
       </c>
       <c r="L9">
-        <v>1.015786109614366</v>
+        <v>1.046457214973727</v>
       </c>
       <c r="M9">
-        <v>1.011843624811468</v>
+        <v>1.057127974741621</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.053785230523101</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.047932339310518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.988111486418436</v>
+        <v>1.011760157198397</v>
       </c>
       <c r="D10">
-        <v>1.00897276403176</v>
+        <v>1.03361068949219</v>
       </c>
       <c r="E10">
-        <v>0.997345677271501</v>
+        <v>1.02694196997565</v>
       </c>
       <c r="F10">
-        <v>0.9904422817688424</v>
+        <v>1.03858319249043</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037685017296019</v>
+        <v>1.056693100824526</v>
       </c>
       <c r="J10">
-        <v>1.016804858382261</v>
+        <v>1.039514830590551</v>
       </c>
       <c r="K10">
-        <v>1.023181880512163</v>
+        <v>1.047398499393354</v>
       </c>
       <c r="L10">
-        <v>1.011763022286432</v>
+        <v>1.040841240723115</v>
       </c>
       <c r="M10">
-        <v>1.004986275012318</v>
+        <v>1.052289089696882</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.050006365405393</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.044621350243118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9850526440461508</v>
+        <v>1.008949536514581</v>
       </c>
       <c r="D11">
-        <v>1.006743988626498</v>
+        <v>1.031900155400961</v>
       </c>
       <c r="E11">
-        <v>0.9949567778560122</v>
+        <v>1.025097823992372</v>
       </c>
       <c r="F11">
-        <v>0.986756136937586</v>
+        <v>1.037101215509761</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036719206990102</v>
+        <v>1.056096593017665</v>
       </c>
       <c r="J11">
-        <v>1.015060747884098</v>
+        <v>1.037954686189646</v>
       </c>
       <c r="K11">
-        <v>1.02153983409467</v>
+        <v>1.046244553654712</v>
       </c>
       <c r="L11">
-        <v>1.009974432804853</v>
+        <v>1.039561460772145</v>
       </c>
       <c r="M11">
-        <v>1.001932210910189</v>
+        <v>1.051355807860338</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.049698420552261</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043837927036642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9839036879804898</v>
+        <v>1.008296711240987</v>
       </c>
       <c r="D12">
-        <v>1.00590766118251</v>
+        <v>1.031597300236297</v>
       </c>
       <c r="E12">
-        <v>0.9940608650202137</v>
+        <v>1.02485251448349</v>
       </c>
       <c r="F12">
-        <v>0.9853714204492294</v>
+        <v>1.0369906776352</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036354997332777</v>
+        <v>1.056057306437298</v>
       </c>
       <c r="J12">
-        <v>1.014405248043368</v>
+        <v>1.037754043143638</v>
       </c>
       <c r="K12">
-        <v>1.02092254823163</v>
+        <v>1.046143189870009</v>
       </c>
       <c r="L12">
-        <v>1.009302740946198</v>
+        <v>1.039518581269423</v>
       </c>
       <c r="M12">
-        <v>1.000784351794648</v>
+        <v>1.051441925710211</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.050089143050799</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043766261134729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.984150731486698</v>
+        <v>1.009301072761401</v>
       </c>
       <c r="D13">
-        <v>1.006087445618673</v>
+        <v>1.032393949548868</v>
       </c>
       <c r="E13">
-        <v>0.9942534360457168</v>
+        <v>1.025859603903485</v>
       </c>
       <c r="F13">
-        <v>0.9856691636010395</v>
+        <v>1.037966559284779</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036433372279381</v>
+        <v>1.056468976746799</v>
       </c>
       <c r="J13">
-        <v>1.014546207379203</v>
+        <v>1.038625743262588</v>
       </c>
       <c r="K13">
-        <v>1.021055296374661</v>
+        <v>1.046883736943418</v>
       </c>
       <c r="L13">
-        <v>1.009447158439678</v>
+        <v>1.040465166945492</v>
       </c>
       <c r="M13">
-        <v>1.001031191709292</v>
+        <v>1.052359101316984</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.051088105812505</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.044287378059186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9849579352862005</v>
+        <v>1.010750664609424</v>
       </c>
       <c r="D14">
-        <v>1.006675032464235</v>
+        <v>1.033447157976597</v>
       </c>
       <c r="E14">
-        <v>0.9948828987060413</v>
+        <v>1.02712704277988</v>
       </c>
       <c r="F14">
-        <v>0.9866419976142115</v>
+        <v>1.039138560747288</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036689214020589</v>
+        <v>1.056959770813953</v>
       </c>
       <c r="J14">
-        <v>1.015006722388025</v>
+        <v>1.039717968285631</v>
       </c>
       <c r="K14">
-        <v>1.021488961035014</v>
+        <v>1.04778090149236</v>
       </c>
       <c r="L14">
-        <v>1.009919062087518</v>
+        <v>1.041571217810469</v>
       </c>
       <c r="M14">
-        <v>1.001837607022458</v>
+        <v>1.053374343340587</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.052062340229331</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.044923095176997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.98545356854267</v>
+        <v>1.011477780219434</v>
       </c>
       <c r="D15">
-        <v>1.007035930964317</v>
+        <v>1.03395685005479</v>
       </c>
       <c r="E15">
-        <v>0.9952695831552284</v>
+        <v>1.027724681819276</v>
       </c>
       <c r="F15">
-        <v>0.9872393095991771</v>
+        <v>1.03967848005177</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036846116060245</v>
+        <v>1.057185201956017</v>
       </c>
       <c r="J15">
-        <v>1.015289435229692</v>
+        <v>1.040232495075371</v>
       </c>
       <c r="K15">
-        <v>1.021755171470907</v>
+        <v>1.048197061715447</v>
       </c>
       <c r="L15">
-        <v>1.010208835827234</v>
+        <v>1.0420728969792</v>
       </c>
       <c r="M15">
-        <v>1.002332662738506</v>
+        <v>1.053821007344713</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.052452598096511</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.045223121476622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9883127379078851</v>
+        <v>1.015044404273708</v>
       </c>
       <c r="D16">
-        <v>1.009119515746624</v>
+        <v>1.036363244534042</v>
       </c>
       <c r="E16">
-        <v>0.9975030421414881</v>
+        <v>1.03048290938966</v>
       </c>
       <c r="F16">
-        <v>0.9906847915927071</v>
+        <v>1.04211882966515</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037748360175295</v>
+        <v>1.058187477003239</v>
       </c>
       <c r="J16">
-        <v>1.016919554527791</v>
+        <v>1.042598667272388</v>
       </c>
       <c r="K16">
-        <v>1.023289843922965</v>
+        <v>1.050070742314836</v>
       </c>
       <c r="L16">
-        <v>1.011880715968637</v>
+        <v>1.04428763754551</v>
       </c>
       <c r="M16">
-        <v>1.005187117742042</v>
+        <v>1.055732524071524</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.053925120284997</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.046550962201852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9900841786674249</v>
+        <v>1.017022596613238</v>
       </c>
       <c r="D17">
-        <v>1.010411839238194</v>
+        <v>1.037659359708825</v>
       </c>
       <c r="E17">
-        <v>0.9988892126995975</v>
+        <v>1.031938025868572</v>
       </c>
       <c r="F17">
-        <v>0.9928193450419388</v>
+        <v>1.043375127287024</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038304801018111</v>
+        <v>1.058696382672223</v>
       </c>
       <c r="J17">
-        <v>1.01792881350934</v>
+        <v>1.043841980492668</v>
       </c>
       <c r="K17">
-        <v>1.024239741223266</v>
+        <v>1.051037803178451</v>
       </c>
       <c r="L17">
-        <v>1.012916746112216</v>
+        <v>1.045408317679908</v>
       </c>
       <c r="M17">
-        <v>1.006954459558774</v>
+        <v>1.056663098860439</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.054532973486077</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.047237237131274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9911096922553118</v>
+        <v>1.017783876994226</v>
       </c>
       <c r="D18">
-        <v>1.011160471409298</v>
+        <v>1.038081476891366</v>
       </c>
       <c r="E18">
-        <v>0.9996925328663471</v>
+        <v>1.032357614443865</v>
       </c>
       <c r="F18">
-        <v>0.9940550434012004</v>
+        <v>1.043675458625454</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038626000441074</v>
+        <v>1.058808305068632</v>
       </c>
       <c r="J18">
-        <v>1.018512823732082</v>
+        <v>1.044191466584892</v>
       </c>
       <c r="K18">
-        <v>1.02478930174052</v>
+        <v>1.051273728603838</v>
       </c>
       <c r="L18">
-        <v>1.013516575704847</v>
+        <v>1.045640248048095</v>
       </c>
       <c r="M18">
-        <v>1.007977189695666</v>
+        <v>1.056780602773534</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.054390977214107</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04739257213031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9914580723213917</v>
+        <v>1.017475806879187</v>
       </c>
       <c r="D19">
-        <v>1.01141487203177</v>
+        <v>1.03774371939677</v>
       </c>
       <c r="E19">
-        <v>0.999965572707906</v>
+        <v>1.031872706189377</v>
       </c>
       <c r="F19">
-        <v>0.9944748237911839</v>
+        <v>1.043134511040888</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03873495671175</v>
+        <v>1.058579621075079</v>
       </c>
       <c r="J19">
-        <v>1.01871117350991</v>
+        <v>1.043763608908723</v>
       </c>
       <c r="K19">
-        <v>1.024975933935377</v>
+        <v>1.050880042963386</v>
       </c>
       <c r="L19">
-        <v>1.0137203538178</v>
+        <v>1.045101336382163</v>
       </c>
       <c r="M19">
-        <v>1.008324555795886</v>
+        <v>1.056187246443288</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.053600635841097</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.047120534981792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9898949247285149</v>
+        <v>1.014134660091322</v>
       </c>
       <c r="D20">
-        <v>1.010273721414265</v>
+        <v>1.035243581654218</v>
       </c>
       <c r="E20">
-        <v>0.9987410314697317</v>
+        <v>1.028825174006499</v>
       </c>
       <c r="F20">
-        <v>0.9925913008683159</v>
+        <v>1.040240184802956</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038245449483498</v>
+        <v>1.057384198065727</v>
       </c>
       <c r="J20">
-        <v>1.017821015386726</v>
+        <v>1.041131381418755</v>
       </c>
       <c r="K20">
-        <v>1.024138293758846</v>
+        <v>1.04869378614134</v>
       </c>
       <c r="L20">
-        <v>1.012806054504006</v>
+        <v>1.0423794216445</v>
       </c>
       <c r="M20">
-        <v>1.006765686418275</v>
+        <v>1.053610532458221</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.051041729221487</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.045578690947741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9847205916909783</v>
+        <v>1.007235494270124</v>
       </c>
       <c r="D21">
-        <v>1.006502239578649</v>
+        <v>1.030520933265037</v>
       </c>
       <c r="E21">
-        <v>0.9946977776350645</v>
+        <v>1.023347324648333</v>
       </c>
       <c r="F21">
-        <v>0.9863559578621756</v>
+        <v>1.035375790629835</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036614027575657</v>
+        <v>1.05537321236557</v>
       </c>
       <c r="J21">
-        <v>1.014871326518867</v>
+        <v>1.036433786666048</v>
       </c>
       <c r="K21">
-        <v>1.021361463334912</v>
+        <v>1.044946263863954</v>
       </c>
       <c r="L21">
-        <v>1.00978030336555</v>
+        <v>1.037899475714114</v>
       </c>
       <c r="M21">
-        <v>1.001600514843206</v>
+        <v>1.049716583444379</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.047919693871178</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042932328484484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9813930717907249</v>
+        <v>1.002821410205911</v>
       </c>
       <c r="D22">
-        <v>1.004081796377909</v>
+        <v>1.027509248295571</v>
       </c>
       <c r="E22">
-        <v>0.9921058208623952</v>
+        <v>1.019864595350118</v>
       </c>
       <c r="F22">
-        <v>0.9823452933831175</v>
+        <v>1.032298129971943</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035556558772904</v>
+        <v>1.054080591197115</v>
       </c>
       <c r="J22">
-        <v>1.012972236561226</v>
+        <v>1.033438266154877</v>
       </c>
       <c r="K22">
-        <v>1.019572823458688</v>
+        <v>1.042554754437753</v>
       </c>
       <c r="L22">
-        <v>1.007835302024673</v>
+        <v>1.035052541542092</v>
       </c>
       <c r="M22">
-        <v>0.9982747984169071</v>
+        <v>1.047255805350005</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.045972170212159</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041228109529323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9831643146643139</v>
+        <v>1.005145788426299</v>
       </c>
       <c r="D23">
-        <v>1.00536971488234</v>
+        <v>1.02908768514421</v>
       </c>
       <c r="E23">
-        <v>0.9934847314684259</v>
+        <v>1.021690893766439</v>
       </c>
       <c r="F23">
-        <v>0.9844802823946983</v>
+        <v>1.033914574983647</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036120222781847</v>
+        <v>1.054757070330852</v>
       </c>
       <c r="J23">
-        <v>1.013983319629687</v>
+        <v>1.035008221878196</v>
       </c>
       <c r="K23">
-        <v>1.020525177686332</v>
+        <v>1.043804127511062</v>
       </c>
       <c r="L23">
-        <v>1.008870538641932</v>
+        <v>1.036541403235623</v>
       </c>
       <c r="M23">
-        <v>1.000045481991716</v>
+        <v>1.048544871794194</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.0469923714978</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042101910886531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9899804643024831</v>
+        <v>1.014099880000734</v>
       </c>
       <c r="D24">
-        <v>1.010336146826484</v>
+        <v>1.03519110208307</v>
       </c>
       <c r="E24">
-        <v>0.9988080042589885</v>
+        <v>1.028754487978538</v>
       </c>
       <c r="F24">
-        <v>0.9926943730474057</v>
+        <v>1.040166309838066</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038272278265294</v>
+        <v>1.057346222158646</v>
       </c>
       <c r="J24">
-        <v>1.017869739135687</v>
+        <v>1.041065765414088</v>
       </c>
       <c r="K24">
-        <v>1.024184147380061</v>
+        <v>1.048627176034042</v>
       </c>
       <c r="L24">
-        <v>1.012856085064336</v>
+        <v>1.04229478289663</v>
       </c>
       <c r="M24">
-        <v>1.006851009948867</v>
+        <v>1.053522957927978</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.050932147364151</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.045504542702728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9975886293300744</v>
+        <v>1.024031108389303</v>
       </c>
       <c r="D25">
-        <v>1.015898236840211</v>
+        <v>1.041979912020861</v>
       </c>
       <c r="E25">
-        <v>1.004782249530631</v>
+        <v>1.03661928960492</v>
       </c>
       <c r="F25">
-        <v>1.001862131359766</v>
+        <v>1.047135584547625</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040638307921891</v>
+        <v>1.060162947502814</v>
       </c>
       <c r="J25">
-        <v>1.022197419125546</v>
+        <v>1.047775938752201</v>
       </c>
       <c r="K25">
-        <v>1.028254666240606</v>
+        <v>1.053959711521331</v>
       </c>
       <c r="L25">
-        <v>1.017306778088145</v>
+        <v>1.048674541993575</v>
       </c>
       <c r="M25">
-        <v>1.014431608751189</v>
+        <v>1.059043734821664</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.055301397378665</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.049271986645193</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031551962701232</v>
+        <v>1.028445281755178</v>
       </c>
       <c r="D2">
-        <v>1.047113616826691</v>
+        <v>1.043643481533369</v>
       </c>
       <c r="E2">
-        <v>1.042579855323791</v>
+        <v>1.040145295568579</v>
       </c>
       <c r="F2">
-        <v>1.052429460838977</v>
+        <v>1.049893591025594</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.06223430963148</v>
+        <v>1.060427727805565</v>
       </c>
       <c r="J2">
-        <v>1.052828241600739</v>
+        <v>1.049807255355316</v>
       </c>
       <c r="K2">
-        <v>1.057953402720996</v>
+        <v>1.054526520082568</v>
       </c>
       <c r="L2">
-        <v>1.053476223067305</v>
+        <v>1.051072300854814</v>
       </c>
       <c r="M2">
-        <v>1.063203676736611</v>
+        <v>1.06069898335281</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.058593639564058</v>
+        <v>1.056611388291327</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.052048198697457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049633801647881</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026039406664762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03687960873387</v>
+        <v>1.033422567307918</v>
       </c>
       <c r="D3">
-        <v>1.050766649475991</v>
+        <v>1.046925907848811</v>
       </c>
       <c r="E3">
-        <v>1.046822972511622</v>
+        <v>1.044052922224773</v>
       </c>
       <c r="F3">
-        <v>1.056197072574777</v>
+        <v>1.053367448161625</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.063682809605243</v>
+        <v>1.061680475183513</v>
       </c>
       <c r="J3">
-        <v>1.056413007474975</v>
+        <v>1.053041787522931</v>
       </c>
       <c r="K3">
-        <v>1.06078869303034</v>
+        <v>1.056991607101223</v>
       </c>
       <c r="L3">
-        <v>1.056889847214086</v>
+        <v>1.054151536442828</v>
       </c>
       <c r="M3">
-        <v>1.06615805833543</v>
+        <v>1.06336015248611</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.060931774158306</v>
+        <v>1.058717476609397</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.054050311654718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.051373880225267</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026633433247167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040252549099738</v>
+        <v>1.036577510529396</v>
       </c>
       <c r="D4">
-        <v>1.053081764822934</v>
+        <v>1.049009038205549</v>
       </c>
       <c r="E4">
-        <v>1.049514207321892</v>
+        <v>1.046535437658128</v>
       </c>
       <c r="F4">
-        <v>1.058587887370102</v>
+        <v>1.055574983533401</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.064586879208446</v>
+        <v>1.062461777233174</v>
       </c>
       <c r="J4">
-        <v>1.058679776388964</v>
+        <v>1.055089683195704</v>
       </c>
       <c r="K4">
-        <v>1.062579122439413</v>
+        <v>1.058549871555221</v>
       </c>
       <c r="L4">
-        <v>1.059049625614241</v>
+        <v>1.056102878780915</v>
       </c>
       <c r="M4">
-        <v>1.068027118126677</v>
+        <v>1.065045928933</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.062410967840036</v>
+        <v>1.060051621852504</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.055317131464223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.052476629803235</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.027006447670184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041660946513246</v>
+        <v>1.037895032798162</v>
       </c>
       <c r="D5">
-        <v>1.054051175075713</v>
+        <v>1.049881699924098</v>
       </c>
       <c r="E5">
-        <v>1.050640767329937</v>
+        <v>1.047574721497246</v>
       </c>
       <c r="F5">
-        <v>1.059588357107339</v>
+        <v>1.056498940787709</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.064963077211722</v>
+        <v>1.062786714444251</v>
       </c>
       <c r="J5">
-        <v>1.059627878997992</v>
+        <v>1.055946364592305</v>
       </c>
       <c r="K5">
-        <v>1.063328884235159</v>
+        <v>1.059202722518492</v>
       </c>
       <c r="L5">
-        <v>1.059953873305499</v>
+        <v>1.056919890557353</v>
       </c>
       <c r="M5">
-        <v>1.068809186998653</v>
+        <v>1.065751416249842</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.063029904581321</v>
+        <v>1.060609952939017</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.055854277301036</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.052945972840622</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.027163506941636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041905597468987</v>
+        <v>1.038123077725646</v>
       </c>
       <c r="D6">
-        <v>1.054222277115577</v>
+        <v>1.050035435425339</v>
       </c>
       <c r="E6">
-        <v>1.050838576551169</v>
+        <v>1.047756232228055</v>
       </c>
       <c r="F6">
-        <v>1.059763311105039</v>
+        <v>1.056659906960094</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.065030516294824</v>
+        <v>1.062844943057284</v>
       </c>
       <c r="J6">
-        <v>1.059795322730251</v>
+        <v>1.056097129985471</v>
       </c>
       <c r="K6">
-        <v>1.063463071633245</v>
+        <v>1.05931952249081</v>
       </c>
       <c r="L6">
-        <v>1.06011432638268</v>
+        <v>1.057064064227492</v>
       </c>
       <c r="M6">
-        <v>1.068947451177813</v>
+        <v>1.065875688653371</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.063139328116327</v>
+        <v>1.060708303561367</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.05595771637476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.053037995708967</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.027193252102027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040296281409056</v>
+        <v>1.036615978733075</v>
       </c>
       <c r="D7">
-        <v>1.053119066440789</v>
+        <v>1.049041656449868</v>
       </c>
       <c r="E7">
-        <v>1.049554790804628</v>
+        <v>1.046569993896209</v>
       </c>
       <c r="F7">
-        <v>1.058621896608508</v>
+        <v>1.055604562274855</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.064604713373331</v>
+        <v>1.062477114623331</v>
       </c>
       <c r="J7">
-        <v>1.058716767847309</v>
+        <v>1.05512149242579</v>
       </c>
       <c r="K7">
-        <v>1.062613227080559</v>
+        <v>1.058579324840866</v>
       </c>
       <c r="L7">
-        <v>1.059086961051185</v>
+        <v>1.056134238302233</v>
       </c>
       <c r="M7">
-        <v>1.068057989181487</v>
+        <v>1.065072403277476</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.062435399495644</v>
+        <v>1.060072573972118</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.055360944296343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.052519172470835</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.027018114484441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033400310196818</v>
+        <v>1.030167775845468</v>
       </c>
       <c r="D8">
-        <v>1.04838952182337</v>
+        <v>1.044787821536501</v>
       </c>
       <c r="E8">
-        <v>1.044058379215994</v>
+        <v>1.041501974003828</v>
       </c>
       <c r="F8">
-        <v>1.053739215752673</v>
+        <v>1.051097934484452</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.062747131484521</v>
+        <v>1.060871081098325</v>
       </c>
       <c r="J8">
-        <v>1.054082093853718</v>
+        <v>1.050935653819822</v>
       </c>
       <c r="K8">
-        <v>1.058951616956554</v>
+        <v>1.055393455644495</v>
       </c>
       <c r="L8">
-        <v>1.054672876601134</v>
+        <v>1.052147655495809</v>
       </c>
       <c r="M8">
-        <v>1.06423732235397</v>
+        <v>1.061627532904181</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.05941168045479</v>
+        <v>1.057346256694665</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.0527764800424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.050271548491703</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026254790945389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020603565309448</v>
+        <v>1.018239927407798</v>
       </c>
       <c r="D9">
-        <v>1.039623459076153</v>
+        <v>1.036930524690392</v>
       </c>
       <c r="E9">
-        <v>1.033891066481478</v>
+        <v>1.032167124956674</v>
       </c>
       <c r="F9">
-        <v>1.044721066279905</v>
+        <v>1.042804700682231</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.059188922137692</v>
+        <v>1.057791503860602</v>
       </c>
       <c r="J9">
-        <v>1.045449164524622</v>
+        <v>1.043164629702667</v>
       </c>
       <c r="K9">
-        <v>1.052104796005998</v>
+        <v>1.049451555576655</v>
       </c>
       <c r="L9">
-        <v>1.046457214973727</v>
+        <v>1.044759013824678</v>
       </c>
       <c r="M9">
-        <v>1.057127974741621</v>
+        <v>1.055239481081313</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.053785230523101</v>
+        <v>1.052290639825744</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.047932339310518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046066954416818</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02480366960864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011760157198397</v>
+        <v>1.010001874597247</v>
       </c>
       <c r="D10">
-        <v>1.03361068949219</v>
+        <v>1.031546269072817</v>
       </c>
       <c r="E10">
-        <v>1.02694196997565</v>
+        <v>1.02579011300234</v>
       </c>
       <c r="F10">
-        <v>1.03858319249043</v>
+        <v>1.037167822179893</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.056693100824526</v>
+        <v>1.055625327254941</v>
       </c>
       <c r="J10">
-        <v>1.039514830590551</v>
+        <v>1.037824206541504</v>
       </c>
       <c r="K10">
-        <v>1.047398499393354</v>
+        <v>1.045368385268047</v>
       </c>
       <c r="L10">
-        <v>1.040841240723115</v>
+        <v>1.039708825242763</v>
       </c>
       <c r="M10">
-        <v>1.052289089696882</v>
+        <v>1.050896932127364</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.050006365405393</v>
+        <v>1.04890464639111</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044621350243118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043198244541728</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023813559226504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008949536514581</v>
+        <v>1.007215547718159</v>
       </c>
       <c r="D11">
-        <v>1.031900155400961</v>
+        <v>1.029902035937975</v>
       </c>
       <c r="E11">
-        <v>1.025097823992372</v>
+        <v>1.023916624086046</v>
       </c>
       <c r="F11">
-        <v>1.037101215509761</v>
+        <v>1.035705614349362</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.056096593017665</v>
+        <v>1.055062797423984</v>
       </c>
       <c r="J11">
-        <v>1.037954686189646</v>
+        <v>1.036291202043384</v>
       </c>
       <c r="K11">
-        <v>1.046244553654712</v>
+        <v>1.044281247758122</v>
       </c>
       <c r="L11">
-        <v>1.039561460772145</v>
+        <v>1.038401175649506</v>
       </c>
       <c r="M11">
-        <v>1.051355807860338</v>
+        <v>1.049984189847698</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.049698420552261</v>
+        <v>1.048613488018749</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043837927036642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042465295377969</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023701479210754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008296711240987</v>
+        <v>1.0064805238197</v>
       </c>
       <c r="D12">
-        <v>1.031597300236297</v>
+        <v>1.029545294422946</v>
       </c>
       <c r="E12">
-        <v>1.02485251448349</v>
+        <v>1.023554096014793</v>
       </c>
       <c r="F12">
-        <v>1.0369906776352</v>
+        <v>1.035527351296029</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.056057306437298</v>
+        <v>1.05499479746576</v>
       </c>
       <c r="J12">
-        <v>1.037754043143638</v>
+        <v>1.036013126205037</v>
       </c>
       <c r="K12">
-        <v>1.046143189870009</v>
+        <v>1.044127530006664</v>
       </c>
       <c r="L12">
-        <v>1.039518581269423</v>
+        <v>1.038243534055477</v>
       </c>
       <c r="M12">
-        <v>1.051441925710211</v>
+        <v>1.050004151195511</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.050089143050799</v>
+        <v>1.048952257985479</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043766261134729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04235661619906</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023776302218608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009301072761401</v>
+        <v>1.007310199339242</v>
       </c>
       <c r="D13">
-        <v>1.032393949548868</v>
+        <v>1.030187405765298</v>
       </c>
       <c r="E13">
-        <v>1.025859603903485</v>
+        <v>1.024363111474016</v>
       </c>
       <c r="F13">
-        <v>1.037966559284779</v>
+        <v>1.036359539654635</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056468976746799</v>
+        <v>1.055325209908324</v>
       </c>
       <c r="J13">
-        <v>1.038625743262588</v>
+        <v>1.036716866511925</v>
       </c>
       <c r="K13">
-        <v>1.046883736943418</v>
+        <v>1.044716075743011</v>
       </c>
       <c r="L13">
-        <v>1.040465166945492</v>
+        <v>1.038995459432742</v>
       </c>
       <c r="M13">
-        <v>1.052359101316984</v>
+        <v>1.050779986221332</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.051088105812505</v>
+        <v>1.049839766706093</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044287378059186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.04277001419091</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024015406249622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010750664609424</v>
+        <v>1.008598748089456</v>
       </c>
       <c r="D14">
-        <v>1.033447157976597</v>
+        <v>1.031089245030354</v>
       </c>
       <c r="E14">
-        <v>1.02712704277988</v>
+        <v>1.025458675125453</v>
       </c>
       <c r="F14">
-        <v>1.039138560747288</v>
+        <v>1.03739900117737</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056959770813953</v>
+        <v>1.055736562215936</v>
       </c>
       <c r="J14">
-        <v>1.039717968285631</v>
+        <v>1.037653282759047</v>
       </c>
       <c r="K14">
-        <v>1.04778090149236</v>
+        <v>1.045463983404287</v>
       </c>
       <c r="L14">
-        <v>1.041571217810469</v>
+        <v>1.039932296122207</v>
       </c>
       <c r="M14">
-        <v>1.053374343340587</v>
+        <v>1.051664577796131</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.052062340229331</v>
+        <v>1.050710897190664</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044923095176997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043300335222455</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024256566553543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011477780219434</v>
+        <v>1.009263900122625</v>
       </c>
       <c r="D15">
-        <v>1.03395685005479</v>
+        <v>1.031537787204416</v>
       </c>
       <c r="E15">
-        <v>1.027724681819276</v>
+        <v>1.025993830165053</v>
       </c>
       <c r="F15">
-        <v>1.03967848005177</v>
+        <v>1.037887865754209</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.057185201956017</v>
+        <v>1.055929935593682</v>
       </c>
       <c r="J15">
-        <v>1.040232495075371</v>
+        <v>1.038107515105684</v>
       </c>
       <c r="K15">
-        <v>1.048197061715447</v>
+        <v>1.045819720750705</v>
       </c>
       <c r="L15">
-        <v>1.0420728969792</v>
+        <v>1.040372342653179</v>
       </c>
       <c r="M15">
-        <v>1.053821007344713</v>
+        <v>1.052060814362171</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.052452598096511</v>
+        <v>1.051061331855796</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.045223121476622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043558213673399</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024356351146821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015044404273708</v>
+        <v>1.012611252671489</v>
       </c>
       <c r="D16">
-        <v>1.036363244534042</v>
+        <v>1.033709888546805</v>
       </c>
       <c r="E16">
-        <v>1.03048290938966</v>
+        <v>1.028553622092623</v>
       </c>
       <c r="F16">
-        <v>1.04211882966515</v>
+        <v>1.040147064180775</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.058187477003239</v>
+        <v>1.056809556960297</v>
       </c>
       <c r="J16">
-        <v>1.042598667272388</v>
+        <v>1.040258081065362</v>
       </c>
       <c r="K16">
-        <v>1.050070742314836</v>
+        <v>1.047461082878843</v>
       </c>
       <c r="L16">
-        <v>1.04428763754551</v>
+        <v>1.042390562856573</v>
       </c>
       <c r="M16">
-        <v>1.055732524071524</v>
+        <v>1.053792743860601</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.053925120284997</v>
+        <v>1.052391863034333</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046550962201852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.044722095547648</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024739849816518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017022596613238</v>
+        <v>1.014503857809108</v>
       </c>
       <c r="D17">
-        <v>1.037659359708825</v>
+        <v>1.034904262305558</v>
       </c>
       <c r="E17">
-        <v>1.031938025868572</v>
+        <v>1.029944188468642</v>
       </c>
       <c r="F17">
-        <v>1.043375127287024</v>
+        <v>1.041332274747606</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.058696382672223</v>
+        <v>1.057265251093662</v>
       </c>
       <c r="J17">
-        <v>1.043841980492668</v>
+        <v>1.041415861930616</v>
       </c>
       <c r="K17">
-        <v>1.051037803178451</v>
+        <v>1.048326772572784</v>
       </c>
       <c r="L17">
-        <v>1.045408317679908</v>
+        <v>1.043446796621912</v>
       </c>
       <c r="M17">
-        <v>1.056663098860439</v>
+        <v>1.054652435549018</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.054532973486077</v>
+        <v>1.052943531923648</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.047237237131274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045336945180952</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024907226827398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017783876994226</v>
+        <v>1.015296114911225</v>
       </c>
       <c r="D18">
-        <v>1.038081476891366</v>
+        <v>1.035337609733885</v>
       </c>
       <c r="E18">
-        <v>1.032357614443865</v>
+        <v>1.030419980942432</v>
       </c>
       <c r="F18">
-        <v>1.043675458625454</v>
+        <v>1.041657796158026</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.058808305068632</v>
+        <v>1.057383292844064</v>
       </c>
       <c r="J18">
-        <v>1.044191466584892</v>
+        <v>1.041793453000474</v>
       </c>
       <c r="K18">
-        <v>1.051273728603838</v>
+        <v>1.048573028471972</v>
       </c>
       <c r="L18">
-        <v>1.045640248048095</v>
+        <v>1.043733502114214</v>
       </c>
       <c r="M18">
-        <v>1.056780602773534</v>
+        <v>1.054794220809884</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.054390977214107</v>
+        <v>1.05282040965412</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04739257213031</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045498437805316</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024888237523448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017475806879187</v>
+        <v>1.015119522547706</v>
       </c>
       <c r="D19">
-        <v>1.03774371939677</v>
+        <v>1.035109473087115</v>
       </c>
       <c r="E19">
-        <v>1.031872706189377</v>
+        <v>1.030093844930909</v>
       </c>
       <c r="F19">
-        <v>1.043134511040888</v>
+        <v>1.041225179960165</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.058579621075079</v>
+        <v>1.057212415911046</v>
       </c>
       <c r="J19">
-        <v>1.043763608908723</v>
+        <v>1.04149189152629</v>
       </c>
       <c r="K19">
-        <v>1.050880042963386</v>
+        <v>1.048287047717888</v>
       </c>
       <c r="L19">
-        <v>1.045101336382163</v>
+        <v>1.043350709270968</v>
       </c>
       <c r="M19">
-        <v>1.056187246443288</v>
+        <v>1.054307394500271</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.053600635841097</v>
+        <v>1.052113824626383</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047120534981792</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045303180599956</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024715186023431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014134660091322</v>
+        <v>1.012201545297055</v>
       </c>
       <c r="D20">
-        <v>1.035243581654218</v>
+        <v>1.033001696556938</v>
       </c>
       <c r="E20">
-        <v>1.028825174006499</v>
+        <v>1.02750460622439</v>
       </c>
       <c r="F20">
-        <v>1.040240184802956</v>
+        <v>1.038680408804069</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.057384198065727</v>
+        <v>1.056223353022255</v>
       </c>
       <c r="J20">
-        <v>1.041131381418755</v>
+        <v>1.039270087421626</v>
       </c>
       <c r="K20">
-        <v>1.04869378614134</v>
+        <v>1.04648805364833</v>
       </c>
       <c r="L20">
-        <v>1.0423794216445</v>
+        <v>1.041080467717853</v>
       </c>
       <c r="M20">
-        <v>1.053610532458221</v>
+        <v>1.05207557943153</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.051041729221487</v>
+        <v>1.049826991803829</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.045578690947741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.044035538194003</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02410006628872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007235494270124</v>
+        <v>1.005818078620295</v>
       </c>
       <c r="D21">
-        <v>1.030520933265037</v>
+        <v>1.028802156579842</v>
       </c>
       <c r="E21">
-        <v>1.023347324648333</v>
+        <v>1.022522946670597</v>
       </c>
       <c r="F21">
-        <v>1.035375790629835</v>
+        <v>1.034240923889146</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.05537321236557</v>
+        <v>1.05448635883157</v>
       </c>
       <c r="J21">
-        <v>1.036433786666048</v>
+        <v>1.035074546411473</v>
       </c>
       <c r="K21">
-        <v>1.044946263863954</v>
+        <v>1.043257664174977</v>
       </c>
       <c r="L21">
-        <v>1.037899475714114</v>
+        <v>1.037089819745855</v>
       </c>
       <c r="M21">
-        <v>1.049716583444379</v>
+        <v>1.04860138618377</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.047919693871178</v>
+        <v>1.047037098448466</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042932328484484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041755146155146</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02328185987483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002821410205911</v>
+        <v>1.001735678514281</v>
       </c>
       <c r="D22">
-        <v>1.027509248295571</v>
+        <v>1.026125022366815</v>
       </c>
       <c r="E22">
-        <v>1.019864595350118</v>
+        <v>1.019357085960796</v>
       </c>
       <c r="F22">
-        <v>1.032298129971943</v>
+        <v>1.031435268453242</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.054080591197115</v>
+        <v>1.053368662488253</v>
       </c>
       <c r="J22">
-        <v>1.033438266154877</v>
+        <v>1.03239987934046</v>
       </c>
       <c r="K22">
-        <v>1.042554754437753</v>
+        <v>1.04119611512305</v>
       </c>
       <c r="L22">
-        <v>1.035052541542092</v>
+        <v>1.03455458719147</v>
       </c>
       <c r="M22">
-        <v>1.047255805350005</v>
+        <v>1.046408690774906</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.045972170212159</v>
+        <v>1.045301740556924</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041228109529323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040282923003611</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022760420413507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005145788426299</v>
+        <v>1.003888367163851</v>
       </c>
       <c r="D23">
-        <v>1.02908768514421</v>
+        <v>1.027529483876705</v>
       </c>
       <c r="E23">
-        <v>1.021690893766439</v>
+        <v>1.021020737798709</v>
       </c>
       <c r="F23">
-        <v>1.033914574983647</v>
+        <v>1.032911098325864</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.054757070330852</v>
+        <v>1.053954245045009</v>
       </c>
       <c r="J23">
-        <v>1.035008221878196</v>
+        <v>1.033803912303115</v>
       </c>
       <c r="K23">
-        <v>1.043804127511062</v>
+        <v>1.042273960100907</v>
       </c>
       <c r="L23">
-        <v>1.036541403235623</v>
+        <v>1.035883518849792</v>
       </c>
       <c r="M23">
-        <v>1.048544871794194</v>
+        <v>1.047559218160592</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.0469923714978</v>
+        <v>1.046212299264303</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042101910886531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041034495504591</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023028454475499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014099880000734</v>
+        <v>1.012190055901342</v>
       </c>
       <c r="D24">
-        <v>1.03519110208307</v>
+        <v>1.032967894346561</v>
       </c>
       <c r="E24">
-        <v>1.028754487978538</v>
+        <v>1.027462473307889</v>
       </c>
       <c r="F24">
-        <v>1.040166309838066</v>
+        <v>1.038625818887137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.057346222158646</v>
+        <v>1.056195275782271</v>
       </c>
       <c r="J24">
-        <v>1.041065765414088</v>
+        <v>1.039226802049606</v>
       </c>
       <c r="K24">
-        <v>1.048627176034042</v>
+        <v>1.046439777771125</v>
       </c>
       <c r="L24">
-        <v>1.04229478289663</v>
+        <v>1.041023890684042</v>
       </c>
       <c r="M24">
-        <v>1.053522957927978</v>
+        <v>1.052006955662425</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.050932147364151</v>
+        <v>1.0497323492932</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.045504542702728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043971664362261</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02406687463528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024031108389303</v>
+        <v>1.021425282628253</v>
       </c>
       <c r="D25">
-        <v>1.041979912020861</v>
+        <v>1.039037041647883</v>
       </c>
       <c r="E25">
-        <v>1.03661928960492</v>
+        <v>1.034661636127395</v>
       </c>
       <c r="F25">
-        <v>1.047135584547625</v>
+        <v>1.045017798234403</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.060162947502814</v>
+        <v>1.058634078976143</v>
       </c>
       <c r="J25">
-        <v>1.047775938752201</v>
+        <v>1.045252505425819</v>
       </c>
       <c r="K25">
-        <v>1.053959711521331</v>
+        <v>1.05105814143198</v>
       </c>
       <c r="L25">
-        <v>1.048674541993575</v>
+        <v>1.04674468980605</v>
       </c>
       <c r="M25">
-        <v>1.059043734821664</v>
+        <v>1.056955271807056</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.055301397378665</v>
+        <v>1.053648550176935</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049271986645193</v>
+        <v>1.047233842909013</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025206147680663</v>
       </c>
     </row>
   </sheetData>
